--- a/yield_prediction/results/gnn_main_scores/arylhalide_main_scores.xlsx
+++ b/yield_prediction/results/gnn_main_scores/arylhalide_main_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="32">
   <si>
     <t>molecule</t>
   </si>
@@ -40,16 +40,34 @@
     <t>rmse_test1</t>
   </si>
   <si>
+    <t>r2_train1</t>
+  </si>
+  <si>
+    <t>r2_test1</t>
+  </si>
+  <si>
     <t>rmse_train2</t>
   </si>
   <si>
     <t>rmse_test2</t>
   </si>
   <si>
+    <t>r2_train2</t>
+  </si>
+  <si>
+    <t>r2_test2</t>
+  </si>
+  <si>
     <t>rmse_train3</t>
   </si>
   <si>
     <t>rmse_test3</t>
+  </si>
+  <si>
+    <t>r2_train3</t>
+  </si>
+  <si>
+    <t>r2_test3</t>
   </si>
   <si>
     <t>mean_rmse_train</t>
@@ -62,6 +80,18 @@
   </si>
   <si>
     <t>std_rmse_test</t>
+  </si>
+  <si>
+    <t>mean_r2_train</t>
+  </si>
+  <si>
+    <t>std_r2_train</t>
+  </si>
+  <si>
+    <t>mean_r2_test</t>
+  </si>
+  <si>
+    <t>std_r2_test</t>
   </si>
   <si>
     <t>aryl_halide_200epochs</t>
@@ -437,13 +467,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P97"/>
+  <dimension ref="A1:Z97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,10 +522,40 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -504,10 +564,10 @@
         <v>0.001</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>262.868</v>
@@ -519,33 +579,63 @@
         <v>15.846</v>
       </c>
       <c r="I2">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="J2">
+        <v>0.525</v>
+      </c>
+      <c r="K2">
         <v>14.226</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>16.425</v>
       </c>
-      <c r="K2">
+      <c r="M2">
+        <v>0.724</v>
+      </c>
+      <c r="N2">
+        <v>0.542</v>
+      </c>
+      <c r="O2">
         <v>14.712</v>
       </c>
-      <c r="L2">
+      <c r="P2">
         <v>17.558</v>
       </c>
-      <c r="M2">
+      <c r="Q2">
+        <v>0.707</v>
+      </c>
+      <c r="R2">
+        <v>0.489</v>
+      </c>
+      <c r="S2">
         <v>14.88133333333334</v>
       </c>
-      <c r="N2">
+      <c r="T2">
         <v>0.7543907033714906</v>
       </c>
-      <c r="O2">
+      <c r="U2">
         <v>16.60966666666667</v>
       </c>
-      <c r="P2">
+      <c r="V2">
         <v>0.870811307536445</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="W2">
+        <v>0.705</v>
+      </c>
+      <c r="X2">
+        <v>0.02007485989988469</v>
+      </c>
+      <c r="Y2">
+        <v>0.5186666666666667</v>
+      </c>
+      <c r="Z2">
+        <v>0.02706165799305975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -554,10 +644,10 @@
         <v>0.001</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>260.946</v>
@@ -569,33 +659,63 @@
         <v>14.689</v>
       </c>
       <c r="I3">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="J3">
+        <v>0.593</v>
+      </c>
+      <c r="K3">
         <v>14.708</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>16.951</v>
       </c>
-      <c r="K3">
+      <c r="M3">
+        <v>0.705</v>
+      </c>
+      <c r="N3">
+        <v>0.495</v>
+      </c>
+      <c r="O3">
         <v>14.765</v>
       </c>
-      <c r="L3">
+      <c r="P3">
         <v>18.549</v>
       </c>
-      <c r="M3">
+      <c r="Q3">
+        <v>0.702</v>
+      </c>
+      <c r="R3">
+        <v>0.425</v>
+      </c>
+      <c r="S3">
         <v>15.027</v>
       </c>
-      <c r="N3">
+      <c r="T3">
         <v>0.5039672608414163</v>
       </c>
-      <c r="O3">
+      <c r="U3">
         <v>16.72966666666667</v>
       </c>
-      <c r="P3">
+      <c r="V3">
         <v>1.939495123307438</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="W3">
+        <v>0.6976666666666667</v>
+      </c>
+      <c r="X3">
+        <v>0.01021436896402965</v>
+      </c>
+      <c r="Y3">
+        <v>0.5043333333333334</v>
+      </c>
+      <c r="Z3">
+        <v>0.0843879928267839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -604,10 +724,10 @@
         <v>0.001</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F4">
         <v>281.859</v>
@@ -619,33 +739,63 @@
         <v>16.419</v>
       </c>
       <c r="I4">
+        <v>0.67</v>
+      </c>
+      <c r="J4">
+        <v>0.501</v>
+      </c>
+      <c r="K4">
         <v>14.678</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>16.957</v>
       </c>
-      <c r="K4">
+      <c r="M4">
+        <v>0.703</v>
+      </c>
+      <c r="N4">
+        <v>0.501</v>
+      </c>
+      <c r="O4">
         <v>14.841</v>
       </c>
-      <c r="L4">
+      <c r="P4">
         <v>17.404</v>
       </c>
-      <c r="M4">
+      <c r="Q4">
+        <v>0.702</v>
+      </c>
+      <c r="R4">
+        <v>0.488</v>
+      </c>
+      <c r="S4">
         <v>15.17366666666667</v>
       </c>
-      <c r="N4">
+      <c r="T4">
         <v>0.7219725294866365</v>
       </c>
-      <c r="O4">
+      <c r="U4">
         <v>16.92666666666667</v>
       </c>
-      <c r="P4">
+      <c r="V4">
         <v>0.4932000946201583</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="W4">
+        <v>0.6916666666666668</v>
+      </c>
+      <c r="X4">
+        <v>0.0187705443004014</v>
+      </c>
+      <c r="Y4">
+        <v>0.4966666666666666</v>
+      </c>
+      <c r="Z4">
+        <v>0.007505553499465142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -654,10 +804,10 @@
         <v>0.001</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F5">
         <v>189.158</v>
@@ -669,33 +819,63 @@
         <v>13.637</v>
       </c>
       <c r="I5">
+        <v>0.777</v>
+      </c>
+      <c r="J5">
+        <v>0.644</v>
+      </c>
+      <c r="K5">
         <v>12.255</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>14.14</v>
       </c>
-      <c r="K5">
+      <c r="M5">
+        <v>0.795</v>
+      </c>
+      <c r="N5">
+        <v>0.654</v>
+      </c>
+      <c r="O5">
         <v>12.428</v>
       </c>
-      <c r="L5">
+      <c r="P5">
         <v>23.024</v>
       </c>
-      <c r="M5">
+      <c r="Q5">
+        <v>0.786</v>
+      </c>
+      <c r="R5">
+        <v>0.119</v>
+      </c>
+      <c r="S5">
         <v>12.6</v>
       </c>
-      <c r="N5">
+      <c r="T5">
         <v>0.4560142541631786</v>
       </c>
-      <c r="O5">
+      <c r="U5">
         <v>16.93366666666667</v>
       </c>
-      <c r="P5">
+      <c r="V5">
         <v>5.280376154530408</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="W5">
+        <v>0.786</v>
+      </c>
+      <c r="X5">
+        <v>0.009000000000000008</v>
+      </c>
+      <c r="Y5">
+        <v>0.4723333333333333</v>
+      </c>
+      <c r="Z5">
+        <v>0.3060364901990175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -704,10 +884,10 @@
         <v>0.001</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <v>262.354</v>
@@ -719,33 +899,63 @@
         <v>15.947</v>
       </c>
       <c r="I6">
+        <v>0.674</v>
+      </c>
+      <c r="J6">
+        <v>0.518</v>
+      </c>
+      <c r="K6">
         <v>14.697</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>16.866</v>
       </c>
-      <c r="K6">
+      <c r="M6">
+        <v>0.704</v>
+      </c>
+      <c r="N6">
+        <v>0.518</v>
+      </c>
+      <c r="O6">
         <v>14.875</v>
       </c>
-      <c r="L6">
+      <c r="P6">
         <v>19.145</v>
       </c>
-      <c r="M6">
+      <c r="Q6">
+        <v>0.698</v>
+      </c>
+      <c r="R6">
+        <v>0.396</v>
+      </c>
+      <c r="S6">
         <v>15.15266666666667</v>
       </c>
-      <c r="N6">
+      <c r="T6">
         <v>0.6412911455285604</v>
       </c>
-      <c r="O6">
+      <c r="U6">
         <v>17.31933333333333</v>
       </c>
-      <c r="P6">
+      <c r="V6">
         <v>1.646491522399473</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="W6">
+        <v>0.6920000000000001</v>
+      </c>
+      <c r="X6">
+        <v>0.01587450786638749</v>
+      </c>
+      <c r="Y6">
+        <v>0.4773333333333333</v>
+      </c>
+      <c r="Z6">
+        <v>0.07043673284113434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -754,10 +964,10 @@
         <v>0.01</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>261.91</v>
@@ -769,33 +979,63 @@
         <v>16.536</v>
       </c>
       <c r="I7">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.479</v>
+      </c>
+      <c r="K7">
         <v>14.383</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>16.386</v>
       </c>
-      <c r="K7">
+      <c r="M7">
+        <v>0.715</v>
+      </c>
+      <c r="N7">
+        <v>0.542</v>
+      </c>
+      <c r="O7">
         <v>14.773</v>
       </c>
-      <c r="L7">
+      <c r="P7">
         <v>19.226</v>
       </c>
-      <c r="M7">
+      <c r="Q7">
+        <v>0.702</v>
+      </c>
+      <c r="R7">
+        <v>0.386</v>
+      </c>
+      <c r="S7">
         <v>14.91933333333333</v>
       </c>
-      <c r="N7">
+      <c r="T7">
         <v>0.6225354072928978</v>
       </c>
-      <c r="O7">
+      <c r="U7">
         <v>17.38266666666667</v>
       </c>
-      <c r="P7">
+      <c r="V7">
         <v>1.598134328939007</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="W7">
+        <v>0.7006666666666667</v>
+      </c>
+      <c r="X7">
+        <v>0.01504437879519563</v>
+      </c>
+      <c r="Y7">
+        <v>0.469</v>
+      </c>
+      <c r="Z7">
+        <v>0.07847929663293371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -804,10 +1044,10 @@
         <v>0.01</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F8">
         <v>268.523</v>
@@ -819,33 +1059,63 @@
         <v>15.663</v>
       </c>
       <c r="I8">
+        <v>0.681</v>
+      </c>
+      <c r="J8">
+        <v>0.535</v>
+      </c>
+      <c r="K8">
         <v>14.233</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>16.23</v>
       </c>
-      <c r="K8">
+      <c r="M8">
+        <v>0.725</v>
+      </c>
+      <c r="N8">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="O8">
         <v>14.841</v>
       </c>
-      <c r="L8">
+      <c r="P8">
         <v>20.328</v>
       </c>
-      <c r="M8">
+      <c r="Q8">
+        <v>0.699</v>
+      </c>
+      <c r="R8">
+        <v>0.309</v>
+      </c>
+      <c r="S8">
         <v>14.915</v>
       </c>
-      <c r="N8">
+      <c r="T8">
         <v>0.721850400013742</v>
       </c>
-      <c r="O8">
+      <c r="U8">
         <v>17.407</v>
       </c>
-      <c r="P8">
+      <c r="V8">
         <v>2.545496611665393</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="W8">
+        <v>0.7016666666666667</v>
+      </c>
+      <c r="X8">
+        <v>0.02212088003071604</v>
+      </c>
+      <c r="Y8">
+        <v>0.4673333333333333</v>
+      </c>
+      <c r="Z8">
+        <v>0.1376020833175622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -854,10 +1124,10 @@
         <v>0.01</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F9">
         <v>273.913</v>
@@ -869,33 +1139,63 @@
         <v>15.817</v>
       </c>
       <c r="I9">
+        <v>0.67</v>
+      </c>
+      <c r="J9">
+        <v>0.525</v>
+      </c>
+      <c r="K9">
         <v>14.282</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>16.392</v>
       </c>
-      <c r="K9">
+      <c r="M9">
+        <v>0.724</v>
+      </c>
+      <c r="N9">
+        <v>0.543</v>
+      </c>
+      <c r="O9">
         <v>15.365</v>
       </c>
-      <c r="L9">
+      <c r="P9">
         <v>20.123</v>
       </c>
-      <c r="M9">
+      <c r="Q9">
+        <v>0.68</v>
+      </c>
+      <c r="R9">
+        <v>0.323</v>
+      </c>
+      <c r="S9">
         <v>15.19433333333333</v>
       </c>
-      <c r="N9">
+      <c r="T9">
         <v>0.8401037634324305</v>
       </c>
-      <c r="O9">
+      <c r="U9">
         <v>17.444</v>
       </c>
-      <c r="P9">
+      <c r="V9">
         <v>2.337827410225144</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="W9">
+        <v>0.6913333333333335</v>
+      </c>
+      <c r="X9">
+        <v>0.02872861523522029</v>
+      </c>
+      <c r="Y9">
+        <v>0.4636666666666667</v>
+      </c>
+      <c r="Z9">
+        <v>0.1221529096392441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -904,10 +1204,10 @@
         <v>0.001</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F10">
         <v>274.55</v>
@@ -919,33 +1219,63 @@
         <v>16.186</v>
       </c>
       <c r="I10">
+        <v>0.67</v>
+      </c>
+      <c r="J10">
+        <v>0.505</v>
+      </c>
+      <c r="K10">
         <v>14.586</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>16.733</v>
       </c>
-      <c r="K10">
+      <c r="M10">
+        <v>0.71</v>
+      </c>
+      <c r="N10">
+        <v>0.517</v>
+      </c>
+      <c r="O10">
         <v>15.184</v>
       </c>
-      <c r="L10">
+      <c r="P10">
         <v>19.561</v>
       </c>
-      <c r="M10">
+      <c r="Q10">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="R10">
+        <v>0.362</v>
+      </c>
+      <c r="S10">
         <v>15.296</v>
       </c>
-      <c r="N10">
+      <c r="T10">
         <v>0.772116571509768</v>
       </c>
-      <c r="O10">
+      <c r="U10">
         <v>17.49333333333333</v>
       </c>
-      <c r="P10">
+      <c r="V10">
         <v>1.811418320911361</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="W10">
+        <v>0.6880000000000001</v>
+      </c>
+      <c r="X10">
+        <v>0.0202977831301844</v>
+      </c>
+      <c r="Y10">
+        <v>0.4613333333333333</v>
+      </c>
+      <c r="Z10">
+        <v>0.08623417729261024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -954,10 +1284,10 @@
         <v>0.01</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F11">
         <v>257.18</v>
@@ -969,33 +1299,63 @@
         <v>14.841</v>
       </c>
       <c r="I11">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.578</v>
+      </c>
+      <c r="K11">
         <v>14.443</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>16.17</v>
       </c>
-      <c r="K11">
+      <c r="M11">
+        <v>0.716</v>
+      </c>
+      <c r="N11">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="O11">
         <v>14.674</v>
       </c>
-      <c r="L11">
+      <c r="P11">
         <v>21.518</v>
       </c>
-      <c r="M11">
+      <c r="Q11">
+        <v>0.705</v>
+      </c>
+      <c r="R11">
+        <v>0.234</v>
+      </c>
+      <c r="S11">
         <v>14.90733333333333</v>
       </c>
-      <c r="N11">
+      <c r="T11">
         <v>0.6151376539713155</v>
       </c>
-      <c r="O11">
+      <c r="U11">
         <v>17.50966666666667</v>
       </c>
-      <c r="P11">
+      <c r="V11">
         <v>3.534347511682084</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="W11">
+        <v>0.703</v>
+      </c>
+      <c r="X11">
+        <v>0.0141067359796659</v>
+      </c>
+      <c r="Y11">
+        <v>0.4589999999999999</v>
+      </c>
+      <c r="Z11">
+        <v>0.1949640992593251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -1004,10 +1364,10 @@
         <v>0.001</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F12">
         <v>252.722</v>
@@ -1019,33 +1379,63 @@
         <v>15.436</v>
       </c>
       <c r="I12">
+        <v>0.698</v>
+      </c>
+      <c r="J12">
+        <v>0.553</v>
+      </c>
+      <c r="K12">
         <v>14.229</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>16.217</v>
       </c>
-      <c r="K12">
+      <c r="M12">
+        <v>0.725</v>
+      </c>
+      <c r="N12">
+        <v>0.556</v>
+      </c>
+      <c r="O12">
         <v>14.71</v>
       </c>
-      <c r="L12">
+      <c r="P12">
         <v>21.084</v>
       </c>
-      <c r="M12">
+      <c r="Q12">
+        <v>0.707</v>
+      </c>
+      <c r="R12">
+        <v>0.263</v>
+      </c>
+      <c r="S12">
         <v>14.76</v>
       </c>
-      <c r="N12">
+      <c r="T12">
         <v>0.557683602054068</v>
       </c>
-      <c r="O12">
+      <c r="U12">
         <v>17.579</v>
       </c>
-      <c r="P12">
+      <c r="V12">
         <v>3.06043444628373</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="W12">
+        <v>0.71</v>
+      </c>
+      <c r="X12">
+        <v>0.01374772708486753</v>
+      </c>
+      <c r="Y12">
+        <v>0.4573333333333333</v>
+      </c>
+      <c r="Z12">
+        <v>0.1683042879231939</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -1054,10 +1444,10 @@
         <v>0.001</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F13">
         <v>281.021</v>
@@ -1069,33 +1459,63 @@
         <v>17.024</v>
       </c>
       <c r="I13">
+        <v>0.657</v>
+      </c>
+      <c r="J13">
+        <v>0.457</v>
+      </c>
+      <c r="K13">
         <v>15.174</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>17.693</v>
       </c>
-      <c r="K13">
+      <c r="M13">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.452</v>
+      </c>
+      <c r="O13">
         <v>15.018</v>
       </c>
-      <c r="L13">
+      <c r="P13">
         <v>18.309</v>
       </c>
-      <c r="M13">
+      <c r="Q13">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="R13">
+        <v>0.434</v>
+      </c>
+      <c r="S13">
         <v>15.47733333333333</v>
       </c>
-      <c r="N13">
+      <c r="T13">
         <v>0.6650784414889209</v>
       </c>
-      <c r="O13">
+      <c r="U13">
         <v>17.67533333333333</v>
       </c>
-      <c r="P13">
+      <c r="V13">
         <v>0.6426821402009966</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="W13">
+        <v>0.6789999999999999</v>
+      </c>
+      <c r="X13">
+        <v>0.01928730152198589</v>
+      </c>
+      <c r="Y13">
+        <v>0.4476666666666667</v>
+      </c>
+      <c r="Z13">
+        <v>0.01209683154108271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1104,10 +1524,10 @@
         <v>0.01</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F14">
         <v>271.742</v>
@@ -1119,33 +1539,63 @@
         <v>15.538</v>
       </c>
       <c r="I14">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="J14">
+        <v>0.54</v>
+      </c>
+      <c r="K14">
         <v>14.551</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>16.566</v>
       </c>
-      <c r="K14">
+      <c r="M14">
+        <v>0.712</v>
+      </c>
+      <c r="N14">
+        <v>0.532</v>
+      </c>
+      <c r="O14">
         <v>15.03</v>
       </c>
-      <c r="L14">
+      <c r="P14">
         <v>21.111</v>
       </c>
-      <c r="M14">
+      <c r="Q14">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="R14">
+        <v>0.237</v>
+      </c>
+      <c r="S14">
         <v>15.079</v>
       </c>
-      <c r="N14">
+      <c r="T14">
         <v>0.5541272417053689</v>
       </c>
-      <c r="O14">
+      <c r="U14">
         <v>17.73833333333333</v>
       </c>
-      <c r="P14">
+      <c r="V14">
         <v>2.965696601699732</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="W14">
+        <v>0.6956666666666668</v>
+      </c>
+      <c r="X14">
+        <v>0.01422439219556789</v>
+      </c>
+      <c r="Y14">
+        <v>0.4363333333333334</v>
+      </c>
+      <c r="Z14">
+        <v>0.1726740667654913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -1154,10 +1604,10 @@
         <v>0.01</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F15">
         <v>268.315</v>
@@ -1169,33 +1619,63 @@
         <v>16.09</v>
       </c>
       <c r="I15">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J15">
+        <v>0.516</v>
+      </c>
+      <c r="K15">
         <v>14.275</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>16.474</v>
       </c>
-      <c r="K15">
+      <c r="M15">
+        <v>0.721</v>
+      </c>
+      <c r="N15">
+        <v>0.531</v>
+      </c>
+      <c r="O15">
         <v>15.061</v>
       </c>
-      <c r="L15">
+      <c r="P15">
         <v>20.717</v>
       </c>
-      <c r="M15">
+      <c r="Q15">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="R15">
+        <v>0.282</v>
+      </c>
+      <c r="S15">
         <v>14.97166666666667</v>
       </c>
-      <c r="N15">
+      <c r="T15">
         <v>0.6565739359229343</v>
       </c>
-      <c r="O15">
+      <c r="U15">
         <v>17.76033333333333</v>
       </c>
-      <c r="P15">
+      <c r="V15">
         <v>2.567736811539167</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="W15">
+        <v>0.7003333333333334</v>
+      </c>
+      <c r="X15">
+        <v>0.01789785834487842</v>
+      </c>
+      <c r="Y15">
+        <v>0.4430000000000001</v>
+      </c>
+      <c r="Z15">
+        <v>0.1396316583014039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -1204,10 +1684,10 @@
         <v>0.01</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F16">
         <v>337.338</v>
@@ -1219,33 +1699,63 @@
         <v>17.492</v>
       </c>
       <c r="I16">
+        <v>0.6</v>
+      </c>
+      <c r="J16">
+        <v>0.416</v>
+      </c>
+      <c r="K16">
         <v>14.904</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>18.005</v>
       </c>
-      <c r="K16">
+      <c r="M16">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="N16">
+        <v>0.476</v>
+      </c>
+      <c r="O16">
         <v>13.371</v>
       </c>
-      <c r="L16">
+      <c r="P16">
         <v>17.859</v>
       </c>
-      <c r="M16">
+      <c r="Q16">
+        <v>0.755</v>
+      </c>
+      <c r="R16">
+        <v>0.469</v>
+      </c>
+      <c r="S16">
         <v>15.28166666666667</v>
       </c>
-      <c r="N16">
+      <c r="T16">
         <v>2.124823365207878</v>
       </c>
-      <c r="O16">
+      <c r="U16">
         <v>17.78533333333333</v>
       </c>
-      <c r="P16">
+      <c r="V16">
         <v>0.2643148375202061</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="W16">
+        <v>0.6826666666666666</v>
+      </c>
+      <c r="X16">
+        <v>0.07801495583113109</v>
+      </c>
+      <c r="Y16">
+        <v>0.4536666666666666</v>
+      </c>
+      <c r="Z16">
+        <v>0.03280751946327752</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1254,10 +1764,10 @@
         <v>0.01</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F17">
         <v>251.058</v>
@@ -1269,33 +1779,63 @@
         <v>14.898</v>
       </c>
       <c r="I17">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J17">
+        <v>0.584</v>
+      </c>
+      <c r="K17">
         <v>14.642</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>16.655</v>
       </c>
-      <c r="K17">
+      <c r="M17">
+        <v>0.707</v>
+      </c>
+      <c r="N17">
+        <v>0.533</v>
+      </c>
+      <c r="O17">
         <v>14.895</v>
       </c>
-      <c r="L17">
+      <c r="P17">
         <v>21.945</v>
       </c>
-      <c r="M17">
+      <c r="Q17">
+        <v>0.696</v>
+      </c>
+      <c r="R17">
+        <v>0.202</v>
+      </c>
+      <c r="S17">
         <v>15.00366666666667</v>
       </c>
-      <c r="N17">
+      <c r="T17">
         <v>0.4265118208600245</v>
       </c>
-      <c r="O17">
+      <c r="U17">
         <v>17.83266666666667</v>
       </c>
-      <c r="P17">
+      <c r="V17">
         <v>3.668136629589107</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="W17">
+        <v>0.6976666666666667</v>
+      </c>
+      <c r="X17">
+        <v>0.008621678104251716</v>
+      </c>
+      <c r="Y17">
+        <v>0.4396666666666667</v>
+      </c>
+      <c r="Z17">
+        <v>0.2073989713892847</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -1304,10 +1844,10 @@
         <v>0.001</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F18">
         <v>201.049</v>
@@ -1319,33 +1859,63 @@
         <v>13.743</v>
       </c>
       <c r="I18">
+        <v>0.771</v>
+      </c>
+      <c r="J18">
+        <v>0.643</v>
+      </c>
+      <c r="K18">
         <v>13.128</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>15.154</v>
       </c>
-      <c r="K18">
+      <c r="M18">
+        <v>0.762</v>
+      </c>
+      <c r="N18">
+        <v>0.6</v>
+      </c>
+      <c r="O18">
         <v>12.826</v>
       </c>
-      <c r="L18">
+      <c r="P18">
         <v>25.101</v>
       </c>
-      <c r="M18">
+      <c r="Q18">
+        <v>0.772</v>
+      </c>
+      <c r="R18">
+        <v>-0.05</v>
+      </c>
+      <c r="S18">
         <v>13.08833333333333</v>
       </c>
-      <c r="N18">
+      <c r="T18">
         <v>0.2449210757230443</v>
       </c>
-      <c r="O18">
+      <c r="U18">
         <v>17.99933333333333</v>
       </c>
-      <c r="P18">
+      <c r="V18">
         <v>6.190555898571091</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="W18">
+        <v>0.7683333333333332</v>
+      </c>
+      <c r="X18">
+        <v>0.005507570547286107</v>
+      </c>
+      <c r="Y18">
+        <v>0.3976666666666666</v>
+      </c>
+      <c r="Z18">
+        <v>0.3882864063205578</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1354,10 +1924,10 @@
         <v>0.001</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F19">
         <v>270.111</v>
@@ -1369,33 +1939,63 @@
         <v>16.404</v>
       </c>
       <c r="I19">
+        <v>0.669</v>
+      </c>
+      <c r="J19">
+        <v>0.496</v>
+      </c>
+      <c r="K19">
         <v>15.104</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>16.966</v>
       </c>
-      <c r="K19">
+      <c r="M19">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="N19">
+        <v>0.504</v>
+      </c>
+      <c r="O19">
         <v>14.984</v>
       </c>
-      <c r="L19">
+      <c r="P19">
         <v>20.701</v>
       </c>
-      <c r="M19">
+      <c r="Q19">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="R19">
+        <v>0.296</v>
+      </c>
+      <c r="S19">
         <v>15.358</v>
       </c>
-      <c r="N19">
+      <c r="T19">
         <v>0.5471635952802422</v>
       </c>
-      <c r="O19">
+      <c r="U19">
         <v>18.02366666666667</v>
       </c>
-      <c r="P19">
+      <c r="V19">
         <v>2.335604061765036</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="W19">
+        <v>0.6836666666666668</v>
+      </c>
+      <c r="X19">
+        <v>0.01274100990241088</v>
+      </c>
+      <c r="Y19">
+        <v>0.432</v>
+      </c>
+      <c r="Z19">
+        <v>0.1178473589012499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -1404,10 +2004,10 @@
         <v>0.001</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F20">
         <v>251.051</v>
@@ -1419,33 +2019,63 @@
         <v>15.087</v>
       </c>
       <c r="I20">
+        <v>0.698</v>
+      </c>
+      <c r="J20">
+        <v>0.574</v>
+      </c>
+      <c r="K20">
         <v>14.202</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>16.653</v>
       </c>
-      <c r="K20">
+      <c r="M20">
+        <v>0.725</v>
+      </c>
+      <c r="N20">
+        <v>0.521</v>
+      </c>
+      <c r="O20">
         <v>14.611</v>
       </c>
-      <c r="L20">
+      <c r="P20">
         <v>22.541</v>
       </c>
-      <c r="M20">
+      <c r="Q20">
+        <v>0.708</v>
+      </c>
+      <c r="R20">
+        <v>0.145</v>
+      </c>
+      <c r="S20">
         <v>14.71866666666667</v>
       </c>
-      <c r="N20">
+      <c r="T20">
         <v>0.5780694883258701</v>
       </c>
-      <c r="O20">
+      <c r="U20">
         <v>18.09366666666667</v>
       </c>
-      <c r="P20">
+      <c r="V20">
         <v>3.930288708648938</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="W20">
+        <v>0.7103333333333334</v>
+      </c>
+      <c r="X20">
+        <v>0.01365039681962886</v>
+      </c>
+      <c r="Y20">
+        <v>0.4133333333333333</v>
+      </c>
+      <c r="Z20">
+        <v>0.233889575084768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -1454,10 +2084,10 @@
         <v>0.001</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F21">
         <v>254.068</v>
@@ -1469,33 +2099,63 @@
         <v>16.465</v>
       </c>
       <c r="I21">
+        <v>0.694</v>
+      </c>
+      <c r="J21">
+        <v>0.497</v>
+      </c>
+      <c r="K21">
         <v>14.203</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>16.022</v>
       </c>
-      <c r="K21">
+      <c r="M21">
+        <v>0.724</v>
+      </c>
+      <c r="N21">
+        <v>0.573</v>
+      </c>
+      <c r="O21">
         <v>14.606</v>
       </c>
-      <c r="L21">
+      <c r="P21">
         <v>22.209</v>
       </c>
-      <c r="M21">
+      <c r="Q21">
+        <v>0.708</v>
+      </c>
+      <c r="R21">
+        <v>0.177</v>
+      </c>
+      <c r="S21">
         <v>14.746</v>
       </c>
-      <c r="N21">
+      <c r="T21">
         <v>0.6248751875374798</v>
       </c>
-      <c r="O21">
+      <c r="U21">
         <v>18.232</v>
       </c>
-      <c r="P21">
+      <c r="V21">
         <v>3.45129816156182</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="W21">
+        <v>0.7086666666666667</v>
+      </c>
+      <c r="X21">
+        <v>0.01501110699893028</v>
+      </c>
+      <c r="Y21">
+        <v>0.4156666666666666</v>
+      </c>
+      <c r="Z21">
+        <v>0.2101554979850238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -1504,10 +2164,10 @@
         <v>0.01</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F22">
         <v>257.144</v>
@@ -1519,33 +2179,63 @@
         <v>14.761</v>
       </c>
       <c r="I22">
+        <v>0.695</v>
+      </c>
+      <c r="J22">
+        <v>0.591</v>
+      </c>
+      <c r="K22">
         <v>14.418</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>16.466</v>
       </c>
-      <c r="K22">
+      <c r="M22">
+        <v>0.718</v>
+      </c>
+      <c r="N22">
+        <v>0.54</v>
+      </c>
+      <c r="O22">
         <v>15.077</v>
       </c>
-      <c r="L22">
+      <c r="P22">
         <v>23.77</v>
       </c>
-      <c r="M22">
+      <c r="Q22">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="R22">
+        <v>0.059</v>
+      </c>
+      <c r="S22">
         <v>14.98766666666667</v>
       </c>
-      <c r="N22">
+      <c r="T22">
         <v>0.5306697026713827</v>
       </c>
-      <c r="O22">
+      <c r="U22">
         <v>18.33233333333333</v>
       </c>
-      <c r="P22">
+      <c r="V22">
         <v>4.785699565720077</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="W22">
+        <v>0.6996666666666665</v>
+      </c>
+      <c r="X22">
+        <v>0.01650252505931539</v>
+      </c>
+      <c r="Y22">
+        <v>0.3966666666666667</v>
+      </c>
+      <c r="Z22">
+        <v>0.2935376182592843</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -1554,10 +2244,10 @@
         <v>0.001</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F23">
         <v>268.598</v>
@@ -1569,33 +2259,63 @@
         <v>15.984</v>
       </c>
       <c r="I23">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="J23">
+        <v>0.524</v>
+      </c>
+      <c r="K23">
         <v>14.447</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>17.015</v>
       </c>
-      <c r="K23">
+      <c r="M23">
+        <v>0.715</v>
+      </c>
+      <c r="N23">
+        <v>0.487</v>
+      </c>
+      <c r="O23">
         <v>14.776</v>
       </c>
-      <c r="L23">
+      <c r="P23">
         <v>22.102</v>
       </c>
-      <c r="M23">
+      <c r="Q23">
+        <v>0.702</v>
+      </c>
+      <c r="R23">
+        <v>0.184</v>
+      </c>
+      <c r="S23">
         <v>14.96933333333333</v>
       </c>
-      <c r="N23">
+      <c r="T23">
         <v>0.6412443631980979</v>
       </c>
-      <c r="O23">
+      <c r="U23">
         <v>18.367</v>
       </c>
-      <c r="P23">
+      <c r="V23">
         <v>3.275425010590229</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="W23">
+        <v>0.7003333333333334</v>
+      </c>
+      <c r="X23">
+        <v>0.01556705923844745</v>
+      </c>
+      <c r="Y23">
+        <v>0.3983333333333334</v>
+      </c>
+      <c r="Z23">
+        <v>0.1865377531046553</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -1604,10 +2324,10 @@
         <v>0.01</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F24">
         <v>262.055</v>
@@ -1619,33 +2339,63 @@
         <v>15.826</v>
       </c>
       <c r="I24">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="J24">
+        <v>0.534</v>
+      </c>
+      <c r="K24">
         <v>14.505</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>17.434</v>
       </c>
-      <c r="K24">
+      <c r="M24">
+        <v>0.715</v>
+      </c>
+      <c r="N24">
+        <v>0.458</v>
+      </c>
+      <c r="O24">
         <v>14.649</v>
       </c>
-      <c r="L24">
+      <c r="P24">
         <v>21.842</v>
       </c>
-      <c r="M24">
+      <c r="Q24">
+        <v>0.707</v>
+      </c>
+      <c r="R24">
+        <v>0.202</v>
+      </c>
+      <c r="S24">
         <v>14.96333333333333</v>
       </c>
-      <c r="N24">
+      <c r="T24">
         <v>0.6730113916816964</v>
       </c>
-      <c r="O24">
+      <c r="U24">
         <v>18.36733333333333</v>
       </c>
-      <c r="P24">
+      <c r="V24">
         <v>3.114706620748305</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="W24">
+        <v>0.7016666666666667</v>
+      </c>
+      <c r="X24">
+        <v>0.01665332799572902</v>
+      </c>
+      <c r="Y24">
+        <v>0.398</v>
+      </c>
+      <c r="Z24">
+        <v>0.1739425192412712</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -1654,10 +2404,10 @@
         <v>0.001</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F25">
         <v>185.978</v>
@@ -1669,33 +2419,63 @@
         <v>13.818</v>
       </c>
       <c r="I25">
+        <v>0.779</v>
+      </c>
+      <c r="J25">
+        <v>0.639</v>
+      </c>
+      <c r="K25">
         <v>12.237</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>15.004</v>
       </c>
-      <c r="K25">
+      <c r="M25">
+        <v>0.794</v>
+      </c>
+      <c r="N25">
+        <v>0.611</v>
+      </c>
+      <c r="O25">
         <v>12.397</v>
       </c>
-      <c r="L25">
+      <c r="P25">
         <v>26.486</v>
       </c>
-      <c r="M25">
+      <c r="Q25">
+        <v>0.787</v>
+      </c>
+      <c r="R25">
+        <v>-0.166</v>
+      </c>
+      <c r="S25">
         <v>12.57033333333333</v>
       </c>
-      <c r="N25">
+      <c r="T25">
         <v>0.4460194315647394</v>
       </c>
-      <c r="O25">
+      <c r="U25">
         <v>18.436</v>
       </c>
-      <c r="P25">
+      <c r="V25">
         <v>6.996679498161968</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="W25">
+        <v>0.7866666666666666</v>
+      </c>
+      <c r="X25">
+        <v>0.007505553499465142</v>
+      </c>
+      <c r="Y25">
+        <v>0.3613333333333333</v>
+      </c>
+      <c r="Z25">
+        <v>0.4568986029014899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -1704,10 +2484,10 @@
         <v>0.001</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F26">
         <v>267.92</v>
@@ -1719,33 +2499,63 @@
         <v>16.283</v>
       </c>
       <c r="I26">
+        <v>0.708</v>
+      </c>
+      <c r="J26">
+        <v>0.501</v>
+      </c>
+      <c r="K26">
         <v>13.524</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>15.597</v>
       </c>
-      <c r="K26">
+      <c r="M26">
+        <v>0.75</v>
+      </c>
+      <c r="N26">
+        <v>0.581</v>
+      </c>
+      <c r="O26">
         <v>14.322</v>
       </c>
-      <c r="L26">
+      <c r="P26">
         <v>23.515</v>
       </c>
-      <c r="M26">
+      <c r="Q26">
+        <v>0.722</v>
+      </c>
+      <c r="R26">
+        <v>0.082</v>
+      </c>
+      <c r="S26">
         <v>14.27733333333333</v>
       </c>
-      <c r="N26">
+      <c r="T26">
         <v>0.7320227683162146</v>
       </c>
-      <c r="O26">
+      <c r="U26">
         <v>18.465</v>
       </c>
-      <c r="P26">
+      <c r="V26">
         <v>4.386858101192698</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="W26">
+        <v>0.7266666666666666</v>
+      </c>
+      <c r="X26">
+        <v>0.02138535324312727</v>
+      </c>
+      <c r="Y26">
+        <v>0.388</v>
+      </c>
+      <c r="Z26">
+        <v>0.2680055969564815</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -1754,10 +2564,10 @@
         <v>0.001</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F27">
         <v>290.011</v>
@@ -1769,33 +2579,63 @@
         <v>16.994</v>
       </c>
       <c r="I27">
+        <v>0.638</v>
+      </c>
+      <c r="J27">
+        <v>0.46</v>
+      </c>
+      <c r="K27">
         <v>15.598</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>18.223</v>
       </c>
-      <c r="K27">
+      <c r="M27">
+        <v>0.67</v>
+      </c>
+      <c r="N27">
+        <v>0.412</v>
+      </c>
+      <c r="O27">
         <v>15.601</v>
       </c>
-      <c r="L27">
+      <c r="P27">
         <v>20.276</v>
       </c>
-      <c r="M27">
+      <c r="Q27">
+        <v>0.668</v>
+      </c>
+      <c r="R27">
+        <v>0.312</v>
+      </c>
+      <c r="S27">
         <v>15.98566666666667</v>
       </c>
-      <c r="N27">
+      <c r="T27">
         <v>0.6688619688196751</v>
       </c>
-      <c r="O27">
+      <c r="U27">
         <v>18.49766666666666</v>
       </c>
-      <c r="P27">
+      <c r="V27">
         <v>1.658150274653457</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="W27">
+        <v>0.6586666666666666</v>
+      </c>
+      <c r="X27">
+        <v>0.01792577287966502</v>
+      </c>
+      <c r="Y27">
+        <v>0.3946666666666667</v>
+      </c>
+      <c r="Z27">
+        <v>0.07550717405209477</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -1804,10 +2644,10 @@
         <v>0.001</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F28">
         <v>267.961</v>
@@ -1819,33 +2659,63 @@
         <v>16.618</v>
       </c>
       <c r="I28">
+        <v>0.675</v>
+      </c>
+      <c r="J28">
+        <v>0.474</v>
+      </c>
+      <c r="K28">
         <v>14.33</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>16.643</v>
       </c>
-      <c r="K28">
+      <c r="M28">
+        <v>0.72</v>
+      </c>
+      <c r="N28">
+        <v>0.525</v>
+      </c>
+      <c r="O28">
         <v>14.741</v>
       </c>
-      <c r="L28">
+      <c r="P28">
         <v>22.247</v>
       </c>
-      <c r="M28">
+      <c r="Q28">
+        <v>0.704</v>
+      </c>
+      <c r="R28">
+        <v>0.176</v>
+      </c>
+      <c r="S28">
         <v>14.97766666666667</v>
       </c>
-      <c r="N28">
+      <c r="T28">
         <v>0.7929466144283192</v>
       </c>
-      <c r="O28">
+      <c r="U28">
         <v>18.50266666666667</v>
       </c>
-      <c r="P28">
+      <c r="V28">
         <v>3.242711879481946</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="W28">
+        <v>0.6996666666666668</v>
+      </c>
+      <c r="X28">
+        <v>0.02281081614790079</v>
+      </c>
+      <c r="Y28">
+        <v>0.3916666666666667</v>
+      </c>
+      <c r="Z28">
+        <v>0.1885055260021131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -1854,10 +2724,10 @@
         <v>0.001</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F29">
         <v>218.012</v>
@@ -1869,33 +2739,63 @@
         <v>16.51</v>
       </c>
       <c r="I29">
+        <v>0.741</v>
+      </c>
+      <c r="J29">
+        <v>0.492</v>
+      </c>
+      <c r="K29">
         <v>13.921</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>18.369</v>
       </c>
-      <c r="K29">
+      <c r="M29">
+        <v>0.735</v>
+      </c>
+      <c r="N29">
+        <v>0.424</v>
+      </c>
+      <c r="O29">
         <v>14.231</v>
       </c>
-      <c r="L29">
+      <c r="P29">
         <v>20.663</v>
       </c>
-      <c r="M29">
+      <c r="Q29">
+        <v>0.721</v>
+      </c>
+      <c r="R29">
+        <v>0.291</v>
+      </c>
+      <c r="S29">
         <v>14.081</v>
       </c>
-      <c r="N29">
+      <c r="T29">
         <v>0.1552417469626005</v>
       </c>
-      <c r="O29">
+      <c r="U29">
         <v>18.514</v>
       </c>
-      <c r="P29">
+      <c r="V29">
         <v>2.080293488909677</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="W29">
+        <v>0.7323333333333334</v>
+      </c>
+      <c r="X29">
+        <v>0.01026320287889378</v>
+      </c>
+      <c r="Y29">
+        <v>0.4023333333333333</v>
+      </c>
+      <c r="Z29">
+        <v>0.1022366535706903</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -1904,10 +2804,10 @@
         <v>0.001</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F30">
         <v>275.459</v>
@@ -1919,33 +2819,63 @@
         <v>16.291</v>
       </c>
       <c r="I30">
+        <v>0.663</v>
+      </c>
+      <c r="J30">
+        <v>0.504</v>
+      </c>
+      <c r="K30">
         <v>14.752</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>17.59</v>
       </c>
-      <c r="K30">
+      <c r="M30">
+        <v>0.703</v>
+      </c>
+      <c r="N30">
+        <v>0.464</v>
+      </c>
+      <c r="O30">
         <v>15.332</v>
       </c>
-      <c r="L30">
+      <c r="P30">
         <v>21.813</v>
       </c>
-      <c r="M30">
+      <c r="Q30">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="R30">
+        <v>0.202</v>
+      </c>
+      <c r="S30">
         <v>15.394</v>
       </c>
-      <c r="N30">
+      <c r="T30">
         <v>0.6751385043085595</v>
       </c>
-      <c r="O30">
+      <c r="U30">
         <v>18.56466666666667</v>
       </c>
-      <c r="P30">
+      <c r="V30">
         <v>2.887144321528339</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="W30">
+        <v>0.6830000000000002</v>
+      </c>
+      <c r="X30">
+        <v>0.01999999999999996</v>
+      </c>
+      <c r="Y30">
+        <v>0.39</v>
+      </c>
+      <c r="Z30">
+        <v>0.1640365812860046</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -1954,10 +2884,10 @@
         <v>0.001</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F31">
         <v>265.014</v>
@@ -1969,33 +2899,63 @@
         <v>16.271</v>
       </c>
       <c r="I31">
+        <v>0.678</v>
+      </c>
+      <c r="J31">
+        <v>0.5</v>
+      </c>
+      <c r="K31">
         <v>14.419</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>16.644</v>
       </c>
-      <c r="K31">
+      <c r="M31">
+        <v>0.715</v>
+      </c>
+      <c r="N31">
+        <v>0.537</v>
+      </c>
+      <c r="O31">
         <v>14.793</v>
       </c>
-      <c r="L31">
+      <c r="P31">
         <v>23.276</v>
       </c>
-      <c r="M31">
+      <c r="Q31">
+        <v>0.702</v>
+      </c>
+      <c r="R31">
+        <v>0.093</v>
+      </c>
+      <c r="S31">
         <v>14.975</v>
       </c>
-      <c r="N31">
+      <c r="T31">
         <v>0.6659219173446683</v>
       </c>
-      <c r="O31">
+      <c r="U31">
         <v>18.73033333333333</v>
       </c>
-      <c r="P31">
+      <c r="V31">
         <v>3.941078067398987</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="W31">
+        <v>0.6983333333333333</v>
+      </c>
+      <c r="X31">
+        <v>0.01877054430040141</v>
+      </c>
+      <c r="Y31">
+        <v>0.3766666666666666</v>
+      </c>
+      <c r="Z31">
+        <v>0.2463581403837375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -2004,10 +2964,10 @@
         <v>0.01</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F32">
         <v>288.867</v>
@@ -2019,33 +2979,63 @@
         <v>15.927</v>
       </c>
       <c r="I32">
+        <v>0.656</v>
+      </c>
+      <c r="J32">
+        <v>0.525</v>
+      </c>
+      <c r="K32">
         <v>15.672</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>17.521</v>
       </c>
-      <c r="K32">
+      <c r="M32">
+        <v>0.668</v>
+      </c>
+      <c r="N32">
+        <v>0.454</v>
+      </c>
+      <c r="O32">
         <v>15.597</v>
       </c>
-      <c r="L32">
+      <c r="P32">
         <v>22.753</v>
       </c>
-      <c r="M32">
+      <c r="Q32">
+        <v>0.665</v>
+      </c>
+      <c r="R32">
+        <v>0.131</v>
+      </c>
+      <c r="S32">
         <v>15.882</v>
       </c>
-      <c r="N32">
+      <c r="T32">
         <v>0.430319648633431</v>
       </c>
-      <c r="O32">
+      <c r="U32">
         <v>18.73366666666667</v>
       </c>
-      <c r="P32">
+      <c r="V32">
         <v>3.570922756562138</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="W32">
+        <v>0.663</v>
+      </c>
+      <c r="X32">
+        <v>0.006244997998398403</v>
+      </c>
+      <c r="Y32">
+        <v>0.3700000000000001</v>
+      </c>
+      <c r="Z32">
+        <v>0.2100023809388837</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -2054,10 +3044,10 @@
         <v>0.01</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F33">
         <v>281.843</v>
@@ -2069,33 +3059,63 @@
         <v>16.114</v>
       </c>
       <c r="I33">
+        <v>0.67</v>
+      </c>
+      <c r="J33">
+        <v>0.517</v>
+      </c>
+      <c r="K33">
         <v>15.71</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>17.251</v>
       </c>
-      <c r="K33">
+      <c r="M33">
+        <v>0.664</v>
+      </c>
+      <c r="N33">
+        <v>0.48</v>
+      </c>
+      <c r="O33">
         <v>15.839</v>
       </c>
-      <c r="L33">
+      <c r="P33">
         <v>22.999</v>
       </c>
-      <c r="M33">
+      <c r="Q33">
+        <v>0.656</v>
+      </c>
+      <c r="R33">
+        <v>0.117</v>
+      </c>
+      <c r="S33">
         <v>15.85666666666667</v>
       </c>
-      <c r="N33">
+      <c r="T33">
         <v>0.1562508666642631</v>
       </c>
-      <c r="O33">
+      <c r="U33">
         <v>18.788</v>
       </c>
-      <c r="P33">
+      <c r="V33">
         <v>3.690878350745252</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="W33">
+        <v>0.6633333333333334</v>
+      </c>
+      <c r="X33">
+        <v>0.007023769168568499</v>
+      </c>
+      <c r="Y33">
+        <v>0.3713333333333333</v>
+      </c>
+      <c r="Z33">
+        <v>0.2210346880770829</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -2104,10 +3124,10 @@
         <v>0.001</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F34">
         <v>221.049</v>
@@ -2119,33 +3139,63 @@
         <v>15.006</v>
       </c>
       <c r="I34">
+        <v>0.758</v>
+      </c>
+      <c r="J34">
+        <v>0.577</v>
+      </c>
+      <c r="K34">
         <v>12.796</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>15.641</v>
       </c>
-      <c r="K34">
+      <c r="M34">
+        <v>0.775</v>
+      </c>
+      <c r="N34">
+        <v>0.575</v>
+      </c>
+      <c r="O34">
         <v>13.58</v>
       </c>
-      <c r="L34">
+      <c r="P34">
         <v>25.74</v>
       </c>
-      <c r="M34">
+      <c r="Q34">
+        <v>0.748</v>
+      </c>
+      <c r="R34">
+        <v>-0.1</v>
+      </c>
+      <c r="S34">
         <v>13.34366666666667</v>
       </c>
-      <c r="N34">
+      <c r="T34">
         <v>0.4757734054498354</v>
       </c>
-      <c r="O34">
+      <c r="U34">
         <v>18.79566666666667</v>
       </c>
-      <c r="P34">
+      <c r="V34">
         <v>6.022344255631134</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="W34">
+        <v>0.7603333333333332</v>
+      </c>
+      <c r="X34">
+        <v>0.01365039681962886</v>
+      </c>
+      <c r="Y34">
+        <v>0.3506666666666666</v>
+      </c>
+      <c r="Z34">
+        <v>0.3902900630727528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -2154,10 +3204,10 @@
         <v>0.01</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F35">
         <v>249.732</v>
@@ -2169,33 +3219,63 @@
         <v>15.778</v>
       </c>
       <c r="I35">
+        <v>0.709</v>
+      </c>
+      <c r="J35">
+        <v>0.534</v>
+      </c>
+      <c r="K35">
         <v>14.324</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <v>17.614</v>
       </c>
-      <c r="K35">
+      <c r="M35">
+        <v>0.717</v>
+      </c>
+      <c r="N35">
+        <v>0.468</v>
+      </c>
+      <c r="O35">
         <v>14.279</v>
       </c>
-      <c r="L35">
+      <c r="P35">
         <v>23.086</v>
       </c>
-      <c r="M35">
+      <c r="Q35">
+        <v>0.72</v>
+      </c>
+      <c r="R35">
+        <v>0.118</v>
+      </c>
+      <c r="S35">
         <v>14.52433333333333</v>
       </c>
-      <c r="N35">
+      <c r="T35">
         <v>0.3866139331857217</v>
       </c>
-      <c r="O35">
+      <c r="U35">
         <v>18.826</v>
       </c>
-      <c r="P35">
+      <c r="V35">
         <v>3.801765905470771</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="W35">
+        <v>0.7153333333333333</v>
+      </c>
+      <c r="X35">
+        <v>0.005686240703077332</v>
+      </c>
+      <c r="Y35">
+        <v>0.3733333333333334</v>
+      </c>
+      <c r="Z35">
+        <v>0.2235739996809409</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -2204,10 +3284,10 @@
         <v>0.01</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F36">
         <v>266.557</v>
@@ -2219,33 +3299,63 @@
         <v>14.914</v>
       </c>
       <c r="I36">
+        <v>0.679</v>
+      </c>
+      <c r="J36">
+        <v>0.575</v>
+      </c>
+      <c r="K36">
         <v>14.262</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>16.523</v>
       </c>
-      <c r="K36">
+      <c r="M36">
+        <v>0.723</v>
+      </c>
+      <c r="N36">
+        <v>0.524</v>
+      </c>
+      <c r="O36">
         <v>17.335</v>
       </c>
-      <c r="L36">
+      <c r="P36">
         <v>25.042</v>
       </c>
-      <c r="M36">
+      <c r="Q36">
+        <v>0.588</v>
+      </c>
+      <c r="R36">
+        <v>-0.08799999999999999</v>
+      </c>
+      <c r="S36">
         <v>15.81133333333333</v>
       </c>
-      <c r="N36">
+      <c r="T36">
         <v>1.536660773669106</v>
       </c>
-      <c r="O36">
+      <c r="U36">
         <v>18.82633333333333</v>
       </c>
-      <c r="P36">
+      <c r="V36">
         <v>5.442711119776003</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="W36">
+        <v>0.6633333333333334</v>
+      </c>
+      <c r="X36">
+        <v>0.06885007867339975</v>
+      </c>
+      <c r="Y36">
+        <v>0.337</v>
+      </c>
+      <c r="Z36">
+        <v>0.368943085041582</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -2254,10 +3364,10 @@
         <v>0.0001</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F37">
         <v>228.132</v>
@@ -2269,33 +3379,63 @@
         <v>15.314</v>
       </c>
       <c r="I37">
+        <v>0.723</v>
+      </c>
+      <c r="J37">
+        <v>0.554</v>
+      </c>
+      <c r="K37">
         <v>13.726</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>16.753</v>
       </c>
-      <c r="K37">
+      <c r="M37">
+        <v>0.744</v>
+      </c>
+      <c r="N37">
+        <v>0.517</v>
+      </c>
+      <c r="O37">
         <v>13.953</v>
       </c>
-      <c r="L37">
+      <c r="P37">
         <v>24.593</v>
       </c>
-      <c r="M37">
+      <c r="Q37">
+        <v>0.73</v>
+      </c>
+      <c r="R37">
+        <v>-0.002</v>
+      </c>
+      <c r="S37">
         <v>14.10366666666667</v>
       </c>
-      <c r="N37">
+      <c r="T37">
         <v>0.4714173663892039</v>
       </c>
-      <c r="O37">
+      <c r="U37">
         <v>18.88666666666667</v>
       </c>
-      <c r="P37">
+      <c r="V37">
         <v>4.993932351697741</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="W37">
+        <v>0.7323333333333334</v>
+      </c>
+      <c r="X37">
+        <v>0.01069267662156364</v>
+      </c>
+      <c r="Y37">
+        <v>0.3563333333333334</v>
+      </c>
+      <c r="Z37">
+        <v>0.3108767172583584</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -2304,10 +3444,10 @@
         <v>0.001</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F38">
         <v>294.362</v>
@@ -2319,33 +3459,63 @@
         <v>17.671</v>
       </c>
       <c r="I38">
+        <v>0.638</v>
+      </c>
+      <c r="J38">
+        <v>0.409</v>
+      </c>
+      <c r="K38">
         <v>15.874</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>16.917</v>
       </c>
-      <c r="K38">
+      <c r="M38">
+        <v>0.657</v>
+      </c>
+      <c r="N38">
+        <v>0.514</v>
+      </c>
+      <c r="O38">
         <v>15.942</v>
       </c>
-      <c r="L38">
+      <c r="P38">
         <v>22.117</v>
       </c>
-      <c r="M38">
+      <c r="Q38">
+        <v>0.653</v>
+      </c>
+      <c r="R38">
+        <v>0.185</v>
+      </c>
+      <c r="S38">
         <v>16.198</v>
       </c>
-      <c r="N38">
+      <c r="T38">
         <v>0.5034441379140282</v>
       </c>
-      <c r="O38">
+      <c r="U38">
         <v>18.90166666666667</v>
       </c>
-      <c r="P38">
+      <c r="V38">
         <v>2.809965361589593</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="W38">
+        <v>0.6493333333333333</v>
+      </c>
+      <c r="X38">
+        <v>0.01001665280087782</v>
+      </c>
+      <c r="Y38">
+        <v>0.3693333333333333</v>
+      </c>
+      <c r="Z38">
+        <v>0.1680486040802878</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -2354,10 +3524,10 @@
         <v>0.001</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F39">
         <v>321.345</v>
@@ -2369,33 +3539,63 @@
         <v>17.199</v>
       </c>
       <c r="I39">
+        <v>0.605</v>
+      </c>
+      <c r="J39">
+        <v>0.439</v>
+      </c>
+      <c r="K39">
         <v>17.645</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>18.803</v>
       </c>
-      <c r="K39">
+      <c r="M39">
+        <v>0.577</v>
+      </c>
+      <c r="N39">
+        <v>0.378</v>
+      </c>
+      <c r="O39">
         <v>17.315</v>
       </c>
-      <c r="L39">
+      <c r="P39">
         <v>20.915</v>
       </c>
-      <c r="M39">
+      <c r="Q39">
+        <v>0.59</v>
+      </c>
+      <c r="R39">
+        <v>0.267</v>
+      </c>
+      <c r="S39">
         <v>17.494</v>
       </c>
-      <c r="N39">
+      <c r="T39">
         <v>0.1667722998582188</v>
       </c>
-      <c r="O39">
+      <c r="U39">
         <v>18.97233333333334</v>
       </c>
-      <c r="P39">
+      <c r="V39">
         <v>1.863778241458283</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="W39">
+        <v>0.5906666666666666</v>
+      </c>
+      <c r="X39">
+        <v>0.01401189970465581</v>
+      </c>
+      <c r="Y39">
+        <v>0.3613333333333333</v>
+      </c>
+      <c r="Z39">
+        <v>0.08720282870029694</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -2404,10 +3604,10 @@
         <v>0.01</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F40">
         <v>279.662</v>
@@ -2419,33 +3619,63 @@
         <v>15.722</v>
       </c>
       <c r="I40">
+        <v>0.654</v>
+      </c>
+      <c r="J40">
+        <v>0.535</v>
+      </c>
+      <c r="K40">
         <v>15.317</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>17.542</v>
       </c>
-      <c r="K40">
+      <c r="M40">
+        <v>0.681</v>
+      </c>
+      <c r="N40">
+        <v>0.472</v>
+      </c>
+      <c r="O40">
         <v>16.304</v>
       </c>
-      <c r="L40">
+      <c r="P40">
         <v>23.659</v>
       </c>
-      <c r="M40">
+      <c r="Q40">
+        <v>0.635</v>
+      </c>
+      <c r="R40">
+        <v>0.052</v>
+      </c>
+      <c r="S40">
         <v>16.00966666666666</v>
       </c>
-      <c r="N40">
+      <c r="T40">
         <v>0.6021165446434213</v>
       </c>
-      <c r="O40">
+      <c r="U40">
         <v>18.97433333333333</v>
       </c>
-      <c r="P40">
+      <c r="V40">
         <v>4.157845155045258</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="W40">
+        <v>0.6566666666666666</v>
+      </c>
+      <c r="X40">
+        <v>0.02311565126344776</v>
+      </c>
+      <c r="Y40">
+        <v>0.353</v>
+      </c>
+      <c r="Z40">
+        <v>0.2625699906691547</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -2454,10 +3684,10 @@
         <v>0.001</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F41">
         <v>289.058</v>
@@ -2469,33 +3699,63 @@
         <v>16.907</v>
       </c>
       <c r="I41">
+        <v>0.659</v>
+      </c>
+      <c r="J41">
+        <v>0.467</v>
+      </c>
+      <c r="K41">
         <v>14.742</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>16.888</v>
       </c>
-      <c r="K41">
+      <c r="M41">
+        <v>0.703</v>
+      </c>
+      <c r="N41">
+        <v>0.51</v>
+      </c>
+      <c r="O41">
         <v>14.925</v>
       </c>
-      <c r="L41">
+      <c r="P41">
         <v>23.195</v>
       </c>
-      <c r="M41">
+      <c r="Q41">
+        <v>0.694</v>
+      </c>
+      <c r="R41">
+        <v>0.097</v>
+      </c>
+      <c r="S41">
         <v>15.33</v>
       </c>
-      <c r="N41">
+      <c r="T41">
         <v>0.8648173217506687</v>
       </c>
-      <c r="O41">
+      <c r="U41">
         <v>18.99666666666667</v>
       </c>
-      <c r="P41">
+      <c r="V41">
         <v>3.635875731283088</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="W41">
+        <v>0.6853333333333333</v>
+      </c>
+      <c r="X41">
+        <v>0.02324507116214814</v>
+      </c>
+      <c r="Y41">
+        <v>0.358</v>
+      </c>
+      <c r="Z41">
+        <v>0.2270528572821756</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -2504,10 +3764,10 @@
         <v>0.001</v>
       </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F42">
         <v>294.896</v>
@@ -2519,33 +3779,63 @@
         <v>17.391</v>
       </c>
       <c r="I42">
+        <v>0.645</v>
+      </c>
+      <c r="J42">
+        <v>0.441</v>
+      </c>
+      <c r="K42">
         <v>15.524</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <v>18.459</v>
       </c>
-      <c r="K42">
+      <c r="M42">
+        <v>0.671</v>
+      </c>
+      <c r="N42">
+        <v>0.43</v>
+      </c>
+      <c r="O42">
         <v>16.316</v>
       </c>
-      <c r="L42">
+      <c r="P42">
         <v>21.168</v>
       </c>
-      <c r="M42">
+      <c r="Q42">
+        <v>0.634</v>
+      </c>
+      <c r="R42">
+        <v>0.248</v>
+      </c>
+      <c r="S42">
         <v>16.17066666666667</v>
       </c>
-      <c r="N42">
+      <c r="T42">
         <v>0.5876370762071893</v>
       </c>
-      <c r="O42">
+      <c r="U42">
         <v>19.006</v>
       </c>
-      <c r="P42">
+      <c r="V42">
         <v>1.947007704145005</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="W42">
+        <v>0.65</v>
+      </c>
+      <c r="X42">
+        <v>0.01900000000000002</v>
+      </c>
+      <c r="Y42">
+        <v>0.373</v>
+      </c>
+      <c r="Z42">
+        <v>0.108392804189208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -2554,10 +3844,10 @@
         <v>0.001</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F43">
         <v>284.898</v>
@@ -2569,33 +3859,63 @@
         <v>16.442</v>
       </c>
       <c r="I43">
+        <v>0.656</v>
+      </c>
+      <c r="J43">
+        <v>0.492</v>
+      </c>
+      <c r="K43">
         <v>14.945</v>
       </c>
-      <c r="J43">
+      <c r="L43">
         <v>16.866</v>
       </c>
-      <c r="K43">
+      <c r="M43">
+        <v>0.695</v>
+      </c>
+      <c r="N43">
+        <v>0.512</v>
+      </c>
+      <c r="O43">
         <v>15.729</v>
       </c>
-      <c r="L43">
+      <c r="P43">
         <v>23.745</v>
       </c>
-      <c r="M43">
+      <c r="Q43">
+        <v>0.662</v>
+      </c>
+      <c r="R43">
+        <v>0.053</v>
+      </c>
+      <c r="S43">
         <v>15.677</v>
       </c>
-      <c r="N43">
+      <c r="T43">
         <v>0.7074348026496854</v>
       </c>
-      <c r="O43">
+      <c r="U43">
         <v>19.01766666666667</v>
       </c>
-      <c r="P43">
+      <c r="V43">
         <v>4.09947610473989</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="W43">
+        <v>0.6709999999999999</v>
+      </c>
+      <c r="X43">
+        <v>0.02099999999999996</v>
+      </c>
+      <c r="Y43">
+        <v>0.3523333333333333</v>
+      </c>
+      <c r="Z43">
+        <v>0.2594230778734485</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -2604,10 +3924,10 @@
         <v>0.01</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F44">
         <v>285.267</v>
@@ -2619,33 +3939,63 @@
         <v>16.041</v>
       </c>
       <c r="I44">
+        <v>0.656</v>
+      </c>
+      <c r="J44">
+        <v>0.518</v>
+      </c>
+      <c r="K44">
         <v>15.65</v>
       </c>
-      <c r="J44">
+      <c r="L44">
         <v>18.642</v>
       </c>
-      <c r="K44">
+      <c r="M44">
+        <v>0.661</v>
+      </c>
+      <c r="N44">
+        <v>0.373</v>
+      </c>
+      <c r="O44">
         <v>15.83</v>
       </c>
-      <c r="L44">
+      <c r="P44">
         <v>22.387</v>
       </c>
-      <c r="M44">
+      <c r="Q44">
+        <v>0.657</v>
+      </c>
+      <c r="R44">
+        <v>0.138</v>
+      </c>
+      <c r="S44">
         <v>15.929</v>
       </c>
-      <c r="N44">
+      <c r="T44">
         <v>0.3395040500494793</v>
       </c>
-      <c r="O44">
+      <c r="U44">
         <v>19.02333333333333</v>
       </c>
-      <c r="P44">
+      <c r="V44">
         <v>3.190139547626927</v>
       </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="W44">
+        <v>0.658</v>
+      </c>
+      <c r="X44">
+        <v>0.002645751311064593</v>
+      </c>
+      <c r="Y44">
+        <v>0.343</v>
+      </c>
+      <c r="Z44">
+        <v>0.1917680891076511</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -2654,10 +4004,10 @@
         <v>0.01</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F45">
         <v>307.598</v>
@@ -2669,33 +4019,63 @@
         <v>17.498</v>
       </c>
       <c r="I45">
+        <v>0.623</v>
+      </c>
+      <c r="J45">
+        <v>0.392</v>
+      </c>
+      <c r="K45">
         <v>14.388</v>
       </c>
-      <c r="J45">
+      <c r="L45">
         <v>15.667</v>
       </c>
-      <c r="K45">
+      <c r="M45">
+        <v>0.714</v>
+      </c>
+      <c r="N45">
+        <v>0.572</v>
+      </c>
+      <c r="O45">
         <v>13.212</v>
       </c>
-      <c r="L45">
+      <c r="P45">
         <v>23.994</v>
       </c>
-      <c r="M45">
+      <c r="Q45">
+        <v>0.76</v>
+      </c>
+      <c r="R45">
+        <v>0.035</v>
+      </c>
+      <c r="S45">
         <v>14.87066666666666</v>
       </c>
-      <c r="N45">
+      <c r="T45">
         <v>1.94543705458011</v>
       </c>
-      <c r="O45">
+      <c r="U45">
         <v>19.053</v>
       </c>
-      <c r="P45">
+      <c r="V45">
         <v>4.375871456064495</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="W45">
+        <v>0.699</v>
+      </c>
+      <c r="X45">
+        <v>0.06972087205421344</v>
+      </c>
+      <c r="Y45">
+        <v>0.333</v>
+      </c>
+      <c r="Z45">
+        <v>0.273318495532227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -2704,10 +4084,10 @@
         <v>0.01</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F46">
         <v>284.752</v>
@@ -2719,33 +4099,63 @@
         <v>17.742</v>
       </c>
       <c r="I46">
+        <v>0.653</v>
+      </c>
+      <c r="J46">
+        <v>0.401</v>
+      </c>
+      <c r="K46">
         <v>14.286</v>
       </c>
-      <c r="J46">
+      <c r="L46">
         <v>16.193</v>
       </c>
-      <c r="K46">
+      <c r="M46">
+        <v>0.721</v>
+      </c>
+      <c r="N46">
+        <v>0.554</v>
+      </c>
+      <c r="O46">
         <v>14.823</v>
       </c>
-      <c r="L46">
+      <c r="P46">
         <v>23.378</v>
       </c>
-      <c r="M46">
+      <c r="Q46">
+        <v>0.701</v>
+      </c>
+      <c r="R46">
+        <v>0.095</v>
+      </c>
+      <c r="S46">
         <v>15.17966666666667</v>
       </c>
-      <c r="N46">
+      <c r="T46">
         <v>1.11561298546285</v>
       </c>
-      <c r="O46">
+      <c r="U46">
         <v>19.10433333333333</v>
       </c>
-      <c r="P46">
+      <c r="V46">
         <v>3.781272316738551</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="W46">
+        <v>0.6916666666666668</v>
+      </c>
+      <c r="X46">
+        <v>0.03494757979221639</v>
+      </c>
+      <c r="Y46">
+        <v>0.35</v>
+      </c>
+      <c r="Z46">
+        <v>0.2337113604427478</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -2754,10 +4164,10 @@
         <v>0.001</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F47">
         <v>234.548</v>
@@ -2769,33 +4179,63 @@
         <v>15.591</v>
       </c>
       <c r="I47">
+        <v>0.72</v>
+      </c>
+      <c r="J47">
+        <v>0.544</v>
+      </c>
+      <c r="K47">
         <v>13.687</v>
       </c>
-      <c r="J47">
+      <c r="L47">
         <v>15.143</v>
       </c>
-      <c r="K47">
+      <c r="M47">
+        <v>0.741</v>
+      </c>
+      <c r="N47">
+        <v>0.603</v>
+      </c>
+      <c r="O47">
         <v>14.753</v>
       </c>
-      <c r="L47">
+      <c r="P47">
         <v>26.592</v>
       </c>
-      <c r="M47">
+      <c r="Q47">
+        <v>0.702</v>
+      </c>
+      <c r="R47">
+        <v>-0.176</v>
+      </c>
+      <c r="S47">
         <v>14.38833333333333</v>
       </c>
-      <c r="N47">
+      <c r="T47">
         <v>0.6075338125020974</v>
       </c>
-      <c r="O47">
+      <c r="U47">
         <v>19.10866666666667</v>
       </c>
-      <c r="P47">
+      <c r="V47">
         <v>6.484626769007861</v>
       </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="W47">
+        <v>0.721</v>
+      </c>
+      <c r="X47">
+        <v>0.01951922129594315</v>
+      </c>
+      <c r="Y47">
+        <v>0.3236666666666667</v>
+      </c>
+      <c r="Z47">
+        <v>0.4337284096451757</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -2804,10 +4244,10 @@
         <v>0.01</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F48">
         <v>332.701</v>
@@ -2819,33 +4259,63 @@
         <v>17.978</v>
       </c>
       <c r="I48">
+        <v>0.601</v>
+      </c>
+      <c r="J48">
+        <v>0.378</v>
+      </c>
+      <c r="K48">
         <v>14.599</v>
       </c>
-      <c r="J48">
+      <c r="L48">
         <v>16.375</v>
       </c>
-      <c r="K48">
+      <c r="M48">
+        <v>0.709</v>
+      </c>
+      <c r="N48">
+        <v>0.547</v>
+      </c>
+      <c r="O48">
         <v>15.034</v>
       </c>
-      <c r="L48">
+      <c r="P48">
         <v>22.984</v>
       </c>
-      <c r="M48">
+      <c r="Q48">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="R48">
+        <v>0.115</v>
+      </c>
+      <c r="S48">
         <v>15.75733333333333</v>
       </c>
-      <c r="N48">
+      <c r="T48">
         <v>1.64402199904178</v>
       </c>
-      <c r="O48">
+      <c r="U48">
         <v>19.11233333333334</v>
       </c>
-      <c r="P48">
+      <c r="V48">
         <v>3.447427204936072</v>
       </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="W48">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="X48">
+        <v>0.0576570319504337</v>
+      </c>
+      <c r="Y48">
+        <v>0.3466666666666667</v>
+      </c>
+      <c r="Z48">
+        <v>0.2176978027756214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -2854,10 +4324,10 @@
         <v>0.01</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E49" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F49">
         <v>257.569</v>
@@ -2869,33 +4339,63 @@
         <v>16.086</v>
       </c>
       <c r="I49">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="J49">
+        <v>0.521</v>
+      </c>
+      <c r="K49">
         <v>14.261</v>
       </c>
-      <c r="J49">
+      <c r="L49">
         <v>18.457</v>
       </c>
-      <c r="K49">
+      <c r="M49">
+        <v>0.725</v>
+      </c>
+      <c r="N49">
+        <v>0.392</v>
+      </c>
+      <c r="O49">
         <v>14.632</v>
       </c>
-      <c r="L49">
+      <c r="P49">
         <v>22.86</v>
       </c>
-      <c r="M49">
+      <c r="Q49">
+        <v>0.707</v>
+      </c>
+      <c r="R49">
+        <v>0.126</v>
+      </c>
+      <c r="S49">
         <v>14.786</v>
       </c>
-      <c r="N49">
+      <c r="T49">
         <v>0.6165963022918645</v>
       </c>
-      <c r="O49">
+      <c r="U49">
         <v>19.13433333333333</v>
       </c>
-      <c r="P49">
+      <c r="V49">
         <v>3.437419720274691</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="W49">
+        <v>0.7079999999999999</v>
+      </c>
+      <c r="X49">
+        <v>0.01652271164185832</v>
+      </c>
+      <c r="Y49">
+        <v>0.3463333333333334</v>
+      </c>
+      <c r="Z49">
+        <v>0.2014207867458901</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B50">
         <v>4</v>
@@ -2904,10 +4404,10 @@
         <v>0.001</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E50" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F50">
         <v>280.759</v>
@@ -2919,33 +4419,63 @@
         <v>17.452</v>
       </c>
       <c r="I50">
+        <v>0.659</v>
+      </c>
+      <c r="J50">
+        <v>0.433</v>
+      </c>
+      <c r="K50">
         <v>15.051</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <v>17.843</v>
       </c>
-      <c r="K50">
+      <c r="M50">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="N50">
+        <v>0.448</v>
+      </c>
+      <c r="O50">
         <v>15.807</v>
       </c>
-      <c r="L50">
+      <c r="P50">
         <v>22.407</v>
       </c>
-      <c r="M50">
+      <c r="Q50">
+        <v>0.658</v>
+      </c>
+      <c r="R50">
+        <v>0.155</v>
+      </c>
+      <c r="S50">
         <v>15.71533333333333</v>
       </c>
-      <c r="N50">
+      <c r="T50">
         <v>0.6235738395196943</v>
       </c>
-      <c r="O50">
+      <c r="U50">
         <v>19.234</v>
       </c>
-      <c r="P50">
+      <c r="V50">
         <v>2.754844278720668</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="W50">
+        <v>0.6696666666666666</v>
+      </c>
+      <c r="X50">
+        <v>0.01934769581457522</v>
+      </c>
+      <c r="Y50">
+        <v>0.3453333333333333</v>
+      </c>
+      <c r="Z50">
+        <v>0.1650040403545723</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -2954,10 +4484,10 @@
         <v>0.001</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F51">
         <v>304.383</v>
@@ -2969,33 +4499,63 @@
         <v>17.437</v>
       </c>
       <c r="I51">
+        <v>0.633</v>
+      </c>
+      <c r="J51">
+        <v>0.436</v>
+      </c>
+      <c r="K51">
         <v>16.447</v>
       </c>
-      <c r="J51">
+      <c r="L51">
         <v>18.022</v>
       </c>
-      <c r="K51">
+      <c r="M51">
+        <v>0.633</v>
+      </c>
+      <c r="N51">
+        <v>0.434</v>
+      </c>
+      <c r="O51">
         <v>17.526</v>
       </c>
-      <c r="L51">
+      <c r="P51">
         <v>22.268</v>
       </c>
-      <c r="M51">
+      <c r="Q51">
+        <v>0.581</v>
+      </c>
+      <c r="R51">
+        <v>0.154</v>
+      </c>
+      <c r="S51">
         <v>16.95766666666666</v>
       </c>
-      <c r="N51">
+      <c r="T51">
         <v>0.5418065460414203</v>
       </c>
-      <c r="O51">
+      <c r="U51">
         <v>19.24233333333333</v>
       </c>
-      <c r="P51">
+      <c r="V51">
         <v>2.636579286373413</v>
       </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="W51">
+        <v>0.6156666666666667</v>
+      </c>
+      <c r="X51">
+        <v>0.03002221399786057</v>
+      </c>
+      <c r="Y51">
+        <v>0.3413333333333333</v>
+      </c>
+      <c r="Z51">
+        <v>0.1622385075539508</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -3004,10 +4564,10 @@
         <v>0.01</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E52" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F52">
         <v>251.277</v>
@@ -3019,33 +4579,63 @@
         <v>15.268</v>
       </c>
       <c r="I52">
+        <v>0.703</v>
+      </c>
+      <c r="J52">
+        <v>0.554</v>
+      </c>
+      <c r="K52">
         <v>14.395</v>
       </c>
-      <c r="J52">
+      <c r="L52">
         <v>16.19</v>
       </c>
-      <c r="K52">
+      <c r="M52">
+        <v>0.714</v>
+      </c>
+      <c r="N52">
+        <v>0.539</v>
+      </c>
+      <c r="O52">
         <v>18.996</v>
       </c>
-      <c r="L52">
+      <c r="P52">
         <v>26.274</v>
       </c>
-      <c r="M52">
+      <c r="Q52">
+        <v>0.51</v>
+      </c>
+      <c r="R52">
+        <v>-0.157</v>
+      </c>
+      <c r="S52">
         <v>16.18433333333333</v>
       </c>
-      <c r="N52">
+      <c r="T52">
         <v>2.464989722764241</v>
       </c>
-      <c r="O52">
+      <c r="U52">
         <v>19.244</v>
       </c>
-      <c r="P52">
+      <c r="V52">
         <v>6.105587277240413</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="W52">
+        <v>0.6423333333333333</v>
+      </c>
+      <c r="X52">
+        <v>0.1147359286942557</v>
+      </c>
+      <c r="Y52">
+        <v>0.312</v>
+      </c>
+      <c r="Z52">
+        <v>0.4062351535748722</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -3054,10 +4644,10 @@
         <v>0.01</v>
       </c>
       <c r="D53" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E53" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F53">
         <v>313.966</v>
@@ -3069,33 +4659,63 @@
         <v>17.987</v>
       </c>
       <c r="I53">
+        <v>0.613</v>
+      </c>
+      <c r="J53">
+        <v>0.398</v>
+      </c>
+      <c r="K53">
         <v>16.855</v>
       </c>
-      <c r="J53">
+      <c r="L53">
         <v>17.846</v>
       </c>
-      <c r="K53">
+      <c r="M53">
+        <v>0.611</v>
+      </c>
+      <c r="N53">
+        <v>0.449</v>
+      </c>
+      <c r="O53">
         <v>17.097</v>
       </c>
-      <c r="L53">
+      <c r="P53">
         <v>22.262</v>
       </c>
-      <c r="M53">
+      <c r="Q53">
+        <v>0.603</v>
+      </c>
+      <c r="R53">
+        <v>0.177</v>
+      </c>
+      <c r="S53">
         <v>17.09633333333333</v>
       </c>
-      <c r="N53">
+      <c r="T53">
         <v>0.2410006915619397</v>
       </c>
-      <c r="O53">
+      <c r="U53">
         <v>19.365</v>
       </c>
-      <c r="P53">
+      <c r="V53">
         <v>2.509865932674493</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="W53">
+        <v>0.609</v>
+      </c>
+      <c r="X53">
+        <v>0.005291502622129186</v>
+      </c>
+      <c r="Y53">
+        <v>0.3413333333333333</v>
+      </c>
+      <c r="Z53">
+        <v>0.1445833093179615</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -3104,10 +4724,10 @@
         <v>0.01</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E54" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F54">
         <v>317.864</v>
@@ -3119,33 +4739,63 @@
         <v>18.001</v>
       </c>
       <c r="I54">
+        <v>0.61</v>
+      </c>
+      <c r="J54">
+        <v>0.385</v>
+      </c>
+      <c r="K54">
         <v>16.374</v>
       </c>
-      <c r="J54">
+      <c r="L54">
         <v>17.919</v>
       </c>
-      <c r="K54">
+      <c r="M54">
+        <v>0.637</v>
+      </c>
+      <c r="N54">
+        <v>0.442</v>
+      </c>
+      <c r="O54">
         <v>16.007</v>
       </c>
-      <c r="L54">
+      <c r="P54">
         <v>22.23</v>
       </c>
-      <c r="M54">
+      <c r="Q54">
+        <v>0.652</v>
+      </c>
+      <c r="R54">
+        <v>0.179</v>
+      </c>
+      <c r="S54">
         <v>16.571</v>
       </c>
-      <c r="N54">
+      <c r="T54">
         <v>0.6841147564553771</v>
       </c>
-      <c r="O54">
+      <c r="U54">
         <v>19.38333333333334</v>
       </c>
-      <c r="P54">
+      <c r="V54">
         <v>2.465626559991057</v>
       </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="W54">
+        <v>0.633</v>
+      </c>
+      <c r="X54">
+        <v>0.02128379665379278</v>
+      </c>
+      <c r="Y54">
+        <v>0.3353333333333333</v>
+      </c>
+      <c r="Z54">
+        <v>0.1383558214652832</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -3154,10 +4804,10 @@
         <v>0.01</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F55">
         <v>246.164</v>
@@ -3169,33 +4819,63 @@
         <v>17.4</v>
       </c>
       <c r="I55">
+        <v>0.716</v>
+      </c>
+      <c r="J55">
+        <v>0.406</v>
+      </c>
+      <c r="K55">
         <v>13.205</v>
       </c>
-      <c r="J55">
+      <c r="L55">
         <v>15.916</v>
       </c>
-      <c r="K55">
+      <c r="M55">
+        <v>0.76</v>
+      </c>
+      <c r="N55">
+        <v>0.552</v>
+      </c>
+      <c r="O55">
         <v>14.485</v>
       </c>
-      <c r="L55">
+      <c r="P55">
         <v>24.874</v>
       </c>
-      <c r="M55">
+      <c r="Q55">
+        <v>0.71</v>
+      </c>
+      <c r="R55">
+        <v>-0.041</v>
+      </c>
+      <c r="S55">
         <v>14.15666666666667</v>
       </c>
-      <c r="N55">
+      <c r="T55">
         <v>0.8372624041083732</v>
       </c>
-      <c r="O55">
+      <c r="U55">
         <v>19.39666666666666</v>
       </c>
-      <c r="P55">
+      <c r="V55">
         <v>4.801192490760324</v>
       </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="W55">
+        <v>0.7286666666666667</v>
+      </c>
+      <c r="X55">
+        <v>0.02730079363925772</v>
+      </c>
+      <c r="Y55">
+        <v>0.3056666666666667</v>
+      </c>
+      <c r="Z55">
+        <v>0.308969793561334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -3204,10 +4884,10 @@
         <v>0.001</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F56">
         <v>197.385</v>
@@ -3219,33 +4899,63 @@
         <v>15.288</v>
       </c>
       <c r="I56">
+        <v>0.757</v>
+      </c>
+      <c r="J56">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="K56">
         <v>12.78</v>
       </c>
-      <c r="J56">
+      <c r="L56">
         <v>17.605</v>
       </c>
-      <c r="K56">
+      <c r="M56">
+        <v>0.777</v>
+      </c>
+      <c r="N56">
+        <v>0.479</v>
+      </c>
+      <c r="O56">
         <v>12.542</v>
       </c>
-      <c r="L56">
+      <c r="P56">
         <v>25.436</v>
       </c>
-      <c r="M56">
+      <c r="Q56">
+        <v>0.785</v>
+      </c>
+      <c r="R56">
+        <v>-0.075</v>
+      </c>
+      <c r="S56">
         <v>13.01133333333333</v>
       </c>
-      <c r="N56">
+      <c r="T56">
         <v>0.6183537283249236</v>
       </c>
-      <c r="O56">
+      <c r="U56">
         <v>19.443</v>
       </c>
-      <c r="P56">
+      <c r="V56">
         <v>5.317815246884757</v>
       </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="W56">
+        <v>0.773</v>
+      </c>
+      <c r="X56">
+        <v>0.01442220510185597</v>
+      </c>
+      <c r="Y56">
+        <v>0.322</v>
+      </c>
+      <c r="Z56">
+        <v>0.3463076666780567</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -3254,10 +4964,10 @@
         <v>0.001</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F57">
         <v>221.41</v>
@@ -3269,33 +4979,63 @@
         <v>16.244</v>
       </c>
       <c r="I57">
+        <v>0.741</v>
+      </c>
+      <c r="J57">
+        <v>0.502</v>
+      </c>
+      <c r="K57">
         <v>12.778</v>
       </c>
-      <c r="J57">
+      <c r="L57">
         <v>16.039</v>
       </c>
-      <c r="K57">
+      <c r="M57">
+        <v>0.774</v>
+      </c>
+      <c r="N57">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="O57">
         <v>13.596</v>
       </c>
-      <c r="L57">
+      <c r="P57">
         <v>26.175</v>
       </c>
-      <c r="M57">
+      <c r="Q57">
+        <v>0.746</v>
+      </c>
+      <c r="R57">
+        <v>-0.137</v>
+      </c>
+      <c r="S57">
         <v>13.49933333333333</v>
       </c>
-      <c r="N57">
+      <c r="T57">
         <v>0.678186798259398</v>
       </c>
-      <c r="O57">
+      <c r="U57">
         <v>19.486</v>
       </c>
-      <c r="P57">
+      <c r="V57">
         <v>5.793750685005354</v>
       </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="W57">
+        <v>0.7536666666666667</v>
+      </c>
+      <c r="X57">
+        <v>0.01778576209593882</v>
+      </c>
+      <c r="Y57">
+        <v>0.3103333333333333</v>
+      </c>
+      <c r="Z57">
+        <v>0.3887214083805178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -3304,10 +5044,10 @@
         <v>0.001</v>
       </c>
       <c r="D58" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F58">
         <v>252.001</v>
@@ -3319,33 +5059,63 @@
         <v>17.104</v>
       </c>
       <c r="I58">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J58">
+        <v>0.45</v>
+      </c>
+      <c r="K58">
         <v>14.754</v>
       </c>
-      <c r="J58">
+      <c r="L58">
         <v>17.301</v>
       </c>
-      <c r="K58">
+      <c r="M58">
+        <v>0.702</v>
+      </c>
+      <c r="N58">
+        <v>0.501</v>
+      </c>
+      <c r="O58">
         <v>15.922</v>
       </c>
-      <c r="L58">
+      <c r="P58">
         <v>24.083</v>
       </c>
-      <c r="M58">
+      <c r="Q58">
+        <v>0.656</v>
+      </c>
+      <c r="R58">
+        <v>0.029</v>
+      </c>
+      <c r="S58">
         <v>15.363</v>
       </c>
-      <c r="N58">
+      <c r="T58">
         <v>0.5856031079152506</v>
       </c>
-      <c r="O58">
+      <c r="U58">
         <v>19.496</v>
       </c>
-      <c r="P58">
+      <c r="V58">
         <v>3.97367952910146</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="W58">
+        <v>0.6826666666666666</v>
+      </c>
+      <c r="X58">
+        <v>0.02386070689089767</v>
+      </c>
+      <c r="Y58">
+        <v>0.3266666666666667</v>
+      </c>
+      <c r="Z58">
+        <v>0.2590450411286295</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -3354,10 +5124,10 @@
         <v>0.001</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E59" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F59">
         <v>268.08</v>
@@ -3369,33 +5139,63 @@
         <v>16.358</v>
       </c>
       <c r="I59">
+        <v>0.674</v>
+      </c>
+      <c r="J59">
+        <v>0.499</v>
+      </c>
+      <c r="K59">
         <v>14.586</v>
       </c>
-      <c r="J59">
+      <c r="L59">
         <v>18.417</v>
       </c>
-      <c r="K59">
+      <c r="M59">
+        <v>0.709</v>
+      </c>
+      <c r="N59">
+        <v>0.403</v>
+      </c>
+      <c r="O59">
         <v>15.184</v>
       </c>
-      <c r="L59">
+      <c r="P59">
         <v>23.765</v>
       </c>
-      <c r="M59">
+      <c r="Q59">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="R59">
+        <v>0.055</v>
+      </c>
+      <c r="S59">
         <v>15.23133333333333</v>
       </c>
-      <c r="N59">
+      <c r="T59">
         <v>0.6702546779645278</v>
       </c>
-      <c r="O59">
+      <c r="U59">
         <v>19.51333333333334</v>
       </c>
-      <c r="P59">
+      <c r="V59">
         <v>3.823267232790998</v>
       </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="W59">
+        <v>0.6886666666666666</v>
+      </c>
+      <c r="X59">
+        <v>0.01817507450695407</v>
+      </c>
+      <c r="Y59">
+        <v>0.319</v>
+      </c>
+      <c r="Z59">
+        <v>0.2336150680071814</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -3404,10 +5204,10 @@
         <v>0.0001</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E60" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F60">
         <v>241.99</v>
@@ -3419,33 +5219,63 @@
         <v>17.051</v>
       </c>
       <c r="I60">
+        <v>0.731</v>
+      </c>
+      <c r="J60">
+        <v>0.458</v>
+      </c>
+      <c r="K60">
         <v>13.367</v>
       </c>
-      <c r="J60">
+      <c r="L60">
         <v>15.917</v>
       </c>
-      <c r="K60">
+      <c r="M60">
+        <v>0.754</v>
+      </c>
+      <c r="N60">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="O60">
         <v>14.664</v>
       </c>
-      <c r="L60">
+      <c r="P60">
         <v>25.575</v>
       </c>
-      <c r="M60">
+      <c r="Q60">
+        <v>0.706</v>
+      </c>
+      <c r="R60">
+        <v>-0.097</v>
+      </c>
+      <c r="S60">
         <v>14.17666666666667</v>
       </c>
-      <c r="N60">
+      <c r="T60">
         <v>0.7060285641058247</v>
       </c>
-      <c r="O60">
+      <c r="U60">
         <v>19.51433333333333</v>
       </c>
-      <c r="P60">
+      <c r="V60">
         <v>5.279228100142419</v>
       </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="W60">
+        <v>0.7303333333333333</v>
+      </c>
+      <c r="X60">
+        <v>0.02400694344004114</v>
+      </c>
+      <c r="Y60">
+        <v>0.309</v>
+      </c>
+      <c r="Z60">
+        <v>0.355728829306819</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -3454,10 +5284,10 @@
         <v>0.01</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E61" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F61">
         <v>255.206</v>
@@ -3469,33 +5299,63 @@
         <v>15.364</v>
       </c>
       <c r="I61">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="J61">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="K61">
         <v>14.782</v>
       </c>
-      <c r="J61">
+      <c r="L61">
         <v>17.215</v>
       </c>
-      <c r="K61">
+      <c r="M61">
+        <v>0.703</v>
+      </c>
+      <c r="N61">
+        <v>0.491</v>
+      </c>
+      <c r="O61">
         <v>16.679</v>
       </c>
-      <c r="L61">
+      <c r="P61">
         <v>26.001</v>
       </c>
-      <c r="M61">
+      <c r="Q61">
+        <v>0.615</v>
+      </c>
+      <c r="R61">
+        <v>-0.146</v>
+      </c>
+      <c r="S61">
         <v>15.64566666666667</v>
       </c>
-      <c r="N61">
+      <c r="T61">
         <v>0.9598136972003117</v>
       </c>
-      <c r="O61">
+      <c r="U61">
         <v>19.52666666666667</v>
       </c>
-      <c r="P61">
+      <c r="V61">
         <v>5.682806906215743</v>
       </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="W61">
+        <v>0.6696666666666666</v>
+      </c>
+      <c r="X61">
+        <v>0.0477214137817954</v>
+      </c>
+      <c r="Y61">
+        <v>0.3023333333333333</v>
+      </c>
+      <c r="Z61">
+        <v>0.3898875906377803</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -3504,10 +5364,10 @@
         <v>0.001</v>
       </c>
       <c r="D62" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E62" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F62">
         <v>263.777</v>
@@ -3519,33 +5379,63 @@
         <v>17.752</v>
       </c>
       <c r="I62">
+        <v>0.676</v>
+      </c>
+      <c r="J62">
+        <v>0.414</v>
+      </c>
+      <c r="K62">
         <v>14.455</v>
       </c>
-      <c r="J62">
+      <c r="L62">
         <v>17.636</v>
       </c>
-      <c r="K62">
+      <c r="M62">
+        <v>0.714</v>
+      </c>
+      <c r="N62">
+        <v>0.454</v>
+      </c>
+      <c r="O62">
         <v>14.964</v>
       </c>
-      <c r="L62">
+      <c r="P62">
         <v>23.212</v>
       </c>
-      <c r="M62">
+      <c r="Q62">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="R62">
+        <v>0.096</v>
+      </c>
+      <c r="S62">
         <v>15.097</v>
       </c>
-      <c r="N62">
+      <c r="T62">
         <v>0.7178015045958038</v>
       </c>
-      <c r="O62">
+      <c r="U62">
         <v>19.53333333333333</v>
       </c>
-      <c r="P62">
+      <c r="V62">
         <v>3.186346706391716</v>
       </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="W62">
+        <v>0.6943333333333334</v>
+      </c>
+      <c r="X62">
+        <v>0.01903505538035894</v>
+      </c>
+      <c r="Y62">
+        <v>0.3213333333333333</v>
+      </c>
+      <c r="Z62">
+        <v>0.1961665958651812</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -3554,10 +5444,10 @@
         <v>0.001</v>
       </c>
       <c r="D63" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E63" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F63">
         <v>293.581</v>
@@ -3569,33 +5459,63 @@
         <v>18.092</v>
       </c>
       <c r="I63">
+        <v>0.643</v>
+      </c>
+      <c r="J63">
+        <v>0.388</v>
+      </c>
+      <c r="K63">
         <v>15.605</v>
       </c>
-      <c r="J63">
+      <c r="L63">
         <v>17.993</v>
       </c>
-      <c r="K63">
+      <c r="M63">
+        <v>0.669</v>
+      </c>
+      <c r="N63">
+        <v>0.446</v>
+      </c>
+      <c r="O63">
         <v>16.431</v>
       </c>
-      <c r="L63">
+      <c r="P63">
         <v>22.703</v>
       </c>
-      <c r="M63">
+      <c r="Q63">
+        <v>0.633</v>
+      </c>
+      <c r="R63">
+        <v>0.139</v>
+      </c>
+      <c r="S63">
         <v>16.20833333333333</v>
       </c>
-      <c r="N63">
+      <c r="T63">
         <v>0.5284404728380793</v>
       </c>
-      <c r="O63">
+      <c r="U63">
         <v>19.596</v>
       </c>
-      <c r="P63">
+      <c r="V63">
         <v>2.691196202434896</v>
       </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="W63">
+        <v>0.6483333333333333</v>
+      </c>
+      <c r="X63">
+        <v>0.01858314648635516</v>
+      </c>
+      <c r="Y63">
+        <v>0.3243333333333334</v>
+      </c>
+      <c r="Z63">
+        <v>0.1631022174384313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -3604,10 +5524,10 @@
         <v>0.01</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E64" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F64">
         <v>299.126</v>
@@ -3619,33 +5539,63 @@
         <v>16.159</v>
       </c>
       <c r="I64">
+        <v>0.639</v>
+      </c>
+      <c r="J64">
+        <v>0.508</v>
+      </c>
+      <c r="K64">
         <v>16.838</v>
       </c>
-      <c r="J64">
+      <c r="L64">
         <v>18.126</v>
       </c>
-      <c r="K64">
+      <c r="M64">
+        <v>0.616</v>
+      </c>
+      <c r="N64">
+        <v>0.431</v>
+      </c>
+      <c r="O64">
         <v>17.912</v>
       </c>
-      <c r="L64">
+      <c r="P64">
         <v>24.664</v>
       </c>
-      <c r="M64">
+      <c r="Q64">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="R64">
+        <v>-0.027</v>
+      </c>
+      <c r="S64">
         <v>17.17</v>
       </c>
-      <c r="N64">
+      <c r="T64">
         <v>0.6437732520072563</v>
       </c>
-      <c r="O64">
+      <c r="U64">
         <v>19.64966666666666</v>
       </c>
-      <c r="P64">
+      <c r="V64">
         <v>4.452519099715726</v>
       </c>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="W64">
+        <v>0.6053333333333333</v>
+      </c>
+      <c r="X64">
+        <v>0.04007908847932212</v>
+      </c>
+      <c r="Y64">
+        <v>0.304</v>
+      </c>
+      <c r="Z64">
+        <v>0.2892282835408737</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -3654,10 +5604,10 @@
         <v>0.01</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E65" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F65">
         <v>260.569</v>
@@ -3669,33 +5619,63 @@
         <v>14.398</v>
       </c>
       <c r="I65">
+        <v>0.704</v>
+      </c>
+      <c r="J65">
+        <v>0.593</v>
+      </c>
+      <c r="K65">
         <v>14.959</v>
       </c>
-      <c r="J65">
+      <c r="L65">
         <v>18.089</v>
       </c>
-      <c r="K65">
+      <c r="M65">
+        <v>0.695</v>
+      </c>
+      <c r="N65">
+        <v>0.46</v>
+      </c>
+      <c r="O65">
         <v>13.608</v>
       </c>
-      <c r="L65">
+      <c r="P65">
         <v>26.526</v>
       </c>
-      <c r="M65">
+      <c r="Q65">
+        <v>0.746</v>
+      </c>
+      <c r="R65">
+        <v>-0.193</v>
+      </c>
+      <c r="S65">
         <v>14.566</v>
       </c>
-      <c r="N65">
+      <c r="T65">
         <v>0.8340977160980598</v>
       </c>
-      <c r="O65">
+      <c r="U65">
         <v>19.671</v>
       </c>
-      <c r="P65">
+      <c r="V65">
         <v>6.216843169969788</v>
       </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="W65">
+        <v>0.715</v>
+      </c>
+      <c r="X65">
+        <v>0.02722131517763242</v>
+      </c>
+      <c r="Y65">
+        <v>0.2866666666666666</v>
+      </c>
+      <c r="Z65">
+        <v>0.4206926827665693</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -3704,10 +5684,10 @@
         <v>0.01</v>
       </c>
       <c r="D66" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E66" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F66">
         <v>279.059</v>
@@ -3719,33 +5699,63 @@
         <v>16.543</v>
       </c>
       <c r="I66">
+        <v>0.665</v>
+      </c>
+      <c r="J66">
+        <v>0.487</v>
+      </c>
+      <c r="K66">
         <v>17.285</v>
       </c>
-      <c r="J66">
+      <c r="L66">
         <v>19.935</v>
       </c>
-      <c r="K66">
+      <c r="M66">
+        <v>0.592</v>
+      </c>
+      <c r="N66">
+        <v>0.276</v>
+      </c>
+      <c r="O66">
         <v>16.056</v>
       </c>
-      <c r="L66">
+      <c r="P66">
         <v>22.593</v>
       </c>
-      <c r="M66">
+      <c r="Q66">
+        <v>0.648</v>
+      </c>
+      <c r="R66">
+        <v>0.15</v>
+      </c>
+      <c r="S66">
         <v>16.483</v>
       </c>
-      <c r="N66">
+      <c r="T66">
         <v>0.6950388478351405</v>
       </c>
-      <c r="O66">
+      <c r="U66">
         <v>19.69033333333333</v>
       </c>
-      <c r="P66">
+      <c r="V66">
         <v>3.032411801410444</v>
       </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="W66">
+        <v>0.6350000000000001</v>
+      </c>
+      <c r="X66">
+        <v>0.03819685850956859</v>
+      </c>
+      <c r="Y66">
+        <v>0.3043333333333333</v>
+      </c>
+      <c r="Z66">
+        <v>0.1702772249401937</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B67">
         <v>4</v>
@@ -3754,10 +5764,10 @@
         <v>0.001</v>
       </c>
       <c r="D67" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E67" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F67">
         <v>206.434</v>
@@ -3769,33 +5779,63 @@
         <v>17.77</v>
       </c>
       <c r="I67">
+        <v>0.758</v>
+      </c>
+      <c r="J67">
+        <v>0.415</v>
+      </c>
+      <c r="K67">
         <v>12.815</v>
       </c>
-      <c r="J67">
+      <c r="L67">
         <v>20.337</v>
       </c>
-      <c r="K67">
+      <c r="M67">
+        <v>0.772</v>
+      </c>
+      <c r="N67">
+        <v>0.299</v>
+      </c>
+      <c r="O67">
         <v>13.193</v>
       </c>
-      <c r="L67">
+      <c r="P67">
         <v>21.007</v>
       </c>
-      <c r="M67">
+      <c r="Q67">
+        <v>0.759</v>
+      </c>
+      <c r="R67">
+        <v>0.268</v>
+      </c>
+      <c r="S67">
         <v>13.21766666666667</v>
       </c>
-      <c r="N67">
+      <c r="T67">
         <v>0.4155494354867221</v>
       </c>
-      <c r="O67">
+      <c r="U67">
         <v>19.70466666666667</v>
       </c>
-      <c r="P67">
+      <c r="V67">
         <v>1.708632884306438</v>
       </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="W67">
+        <v>0.763</v>
+      </c>
+      <c r="X67">
+        <v>0.007810249675906661</v>
+      </c>
+      <c r="Y67">
+        <v>0.3273333333333333</v>
+      </c>
+      <c r="Z67">
+        <v>0.07748763342194244</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B68">
         <v>4</v>
@@ -3804,10 +5844,10 @@
         <v>0.01</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E68" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F68">
         <v>284.944</v>
@@ -3819,33 +5859,63 @@
         <v>16.281</v>
       </c>
       <c r="I68">
+        <v>0.666</v>
+      </c>
+      <c r="J68">
+        <v>0.503</v>
+      </c>
+      <c r="K68">
         <v>14.606</v>
       </c>
-      <c r="J68">
+      <c r="L68">
         <v>16.639</v>
       </c>
-      <c r="K68">
+      <c r="M68">
+        <v>0.707</v>
+      </c>
+      <c r="N68">
+        <v>0.531</v>
+      </c>
+      <c r="O68">
         <v>18.278</v>
       </c>
-      <c r="L68">
+      <c r="P68">
         <v>26.956</v>
       </c>
-      <c r="M68">
+      <c r="Q68">
+        <v>0.543</v>
+      </c>
+      <c r="R68">
+        <v>-0.223</v>
+      </c>
+      <c r="S68">
         <v>16.304</v>
       </c>
-      <c r="N68">
+      <c r="T68">
         <v>1.851493451244157</v>
       </c>
-      <c r="O68">
+      <c r="U68">
         <v>19.95866666666667</v>
       </c>
-      <c r="P68">
+      <c r="V68">
         <v>6.062511553253596</v>
       </c>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="W68">
+        <v>0.6386666666666666</v>
+      </c>
+      <c r="X68">
+        <v>0.08534830597811141</v>
+      </c>
+      <c r="Y68">
+        <v>0.2703333333333334</v>
+      </c>
+      <c r="Z68">
+        <v>0.427468517359271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -3854,10 +5924,10 @@
         <v>0.01</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E69" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F69">
         <v>255.266</v>
@@ -3869,33 +5939,63 @@
         <v>15.525</v>
       </c>
       <c r="I69">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="J69">
+        <v>0.549</v>
+      </c>
+      <c r="K69">
         <v>14.636</v>
       </c>
-      <c r="J69">
+      <c r="L69">
         <v>17.165</v>
       </c>
-      <c r="K69">
+      <c r="M69">
+        <v>0.707</v>
+      </c>
+      <c r="N69">
+        <v>0.494</v>
+      </c>
+      <c r="O69">
         <v>14.73</v>
       </c>
-      <c r="L69">
+      <c r="P69">
         <v>27.217</v>
       </c>
-      <c r="M69">
+      <c r="Q69">
+        <v>0.704</v>
+      </c>
+      <c r="R69">
+        <v>-0.266</v>
+      </c>
+      <c r="S69">
         <v>14.96866666666667</v>
       </c>
-      <c r="N69">
+      <c r="T69">
         <v>0.4970164316532533</v>
       </c>
-      <c r="O69">
+      <c r="U69">
         <v>19.969</v>
       </c>
-      <c r="P69">
+      <c r="V69">
         <v>6.330286565393386</v>
       </c>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="W69">
+        <v>0.6993333333333333</v>
+      </c>
+      <c r="X69">
+        <v>0.0107857931249089</v>
+      </c>
+      <c r="Y69">
+        <v>0.2590000000000001</v>
+      </c>
+      <c r="Z69">
+        <v>0.4554942370656297</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -3904,10 +6004,10 @@
         <v>0.01</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E70" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F70">
         <v>324.791</v>
@@ -3919,33 +6019,63 @@
         <v>17.647</v>
       </c>
       <c r="I70">
+        <v>0.621</v>
+      </c>
+      <c r="J70">
+        <v>0.42</v>
+      </c>
+      <c r="K70">
         <v>16.314</v>
       </c>
-      <c r="J70">
+      <c r="L70">
         <v>17.775</v>
       </c>
-      <c r="K70">
+      <c r="M70">
+        <v>0.637</v>
+      </c>
+      <c r="N70">
+        <v>0.451</v>
+      </c>
+      <c r="O70">
         <v>18.651</v>
       </c>
-      <c r="L70">
+      <c r="P70">
         <v>24.512</v>
       </c>
-      <c r="M70">
+      <c r="Q70">
+        <v>0.525</v>
+      </c>
+      <c r="R70">
+        <v>-0.02</v>
+      </c>
+      <c r="S70">
         <v>17.393</v>
       </c>
-      <c r="N70">
+      <c r="T70">
         <v>1.178737884349188</v>
       </c>
-      <c r="O70">
+      <c r="U70">
         <v>19.978</v>
       </c>
-      <c r="P70">
+      <c r="V70">
         <v>3.927080722368717</v>
       </c>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="W70">
+        <v>0.5943333333333333</v>
+      </c>
+      <c r="X70">
+        <v>0.06057502235520291</v>
+      </c>
+      <c r="Y70">
+        <v>0.2836666666666667</v>
+      </c>
+      <c r="Z70">
+        <v>0.2634394301036452</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -3954,10 +6084,10 @@
         <v>0.001</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E71" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F71">
         <v>320.069</v>
@@ -3969,33 +6099,63 @@
         <v>18.079</v>
       </c>
       <c r="I71">
+        <v>0.602</v>
+      </c>
+      <c r="J71">
+        <v>0.386</v>
+      </c>
+      <c r="K71">
         <v>16.387</v>
       </c>
-      <c r="J71">
+      <c r="L71">
         <v>18.303</v>
       </c>
-      <c r="K71">
+      <c r="M71">
+        <v>0.638</v>
+      </c>
+      <c r="N71">
+        <v>0.436</v>
+      </c>
+      <c r="O71">
         <v>17.413</v>
       </c>
-      <c r="L71">
+      <c r="P71">
         <v>23.687</v>
       </c>
-      <c r="M71">
+      <c r="Q71">
+        <v>0.582</v>
+      </c>
+      <c r="R71">
+        <v>0.063</v>
+      </c>
+      <c r="S71">
         <v>17.141</v>
       </c>
-      <c r="N71">
+      <c r="T71">
         <v>0.6613713026734682</v>
       </c>
-      <c r="O71">
+      <c r="U71">
         <v>20.023</v>
       </c>
-      <c r="P71">
+      <c r="V71">
         <v>3.175093069502058</v>
       </c>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="W71">
+        <v>0.6073333333333334</v>
+      </c>
+      <c r="X71">
+        <v>0.02837839553839037</v>
+      </c>
+      <c r="Y71">
+        <v>0.295</v>
+      </c>
+      <c r="Z71">
+        <v>0.2024672813073757</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -4004,10 +6164,10 @@
         <v>0.0001</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E72" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F72">
         <v>304.533</v>
@@ -4019,33 +6179,63 @@
         <v>18.869</v>
       </c>
       <c r="I72">
+        <v>0.634</v>
+      </c>
+      <c r="J72">
+        <v>0.338</v>
+      </c>
+      <c r="K72">
         <v>15.756</v>
       </c>
-      <c r="J72">
+      <c r="L72">
         <v>18.23</v>
       </c>
-      <c r="K72">
+      <c r="M72">
+        <v>0.662</v>
+      </c>
+      <c r="N72">
+        <v>0.406</v>
+      </c>
+      <c r="O72">
         <v>16.523</v>
       </c>
-      <c r="L72">
+      <c r="P72">
         <v>22.973</v>
       </c>
-      <c r="M72">
+      <c r="Q72">
+        <v>0.626</v>
+      </c>
+      <c r="R72">
+        <v>0.121</v>
+      </c>
+      <c r="S72">
         <v>16.41533333333333</v>
       </c>
-      <c r="N72">
+      <c r="T72">
         <v>0.6126371955189568</v>
       </c>
-      <c r="O72">
+      <c r="U72">
         <v>20.024</v>
       </c>
-      <c r="P72">
+      <c r="V72">
         <v>2.573816427020388</v>
       </c>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="W72">
+        <v>0.6406666666666667</v>
+      </c>
+      <c r="X72">
+        <v>0.01890326250501045</v>
+      </c>
+      <c r="Y72">
+        <v>0.2883333333333333</v>
+      </c>
+      <c r="Z72">
+        <v>0.1488500363900975</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -4054,10 +6244,10 @@
         <v>0.01</v>
       </c>
       <c r="D73" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E73" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F73">
         <v>280.468</v>
@@ -4069,33 +6259,63 @@
         <v>16.91</v>
       </c>
       <c r="I73">
+        <v>0.661</v>
+      </c>
+      <c r="J73">
+        <v>0.466</v>
+      </c>
+      <c r="K73">
         <v>17.405</v>
       </c>
-      <c r="J73">
+      <c r="L73">
         <v>18.756</v>
       </c>
-      <c r="K73">
+      <c r="M73">
+        <v>0.586</v>
+      </c>
+      <c r="N73">
+        <v>0.359</v>
+      </c>
+      <c r="O73">
         <v>16.789</v>
       </c>
-      <c r="L73">
+      <c r="P73">
         <v>24.473</v>
       </c>
-      <c r="M73">
+      <c r="Q73">
+        <v>0.614</v>
+      </c>
+      <c r="R73">
+        <v>-0.018</v>
+      </c>
+      <c r="S73">
         <v>16.80933333333333</v>
       </c>
-      <c r="N73">
+      <c r="T73">
         <v>0.5857647423098569</v>
       </c>
-      <c r="O73">
+      <c r="U73">
         <v>20.04633333333333</v>
       </c>
-      <c r="P73">
+      <c r="V73">
         <v>3.943153856157952</v>
       </c>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="W73">
+        <v>0.6203333333333333</v>
+      </c>
+      <c r="X73">
+        <v>0.03789898855290647</v>
+      </c>
+      <c r="Y73">
+        <v>0.269</v>
+      </c>
+      <c r="Z73">
+        <v>0.2542420106906016</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -4104,10 +6324,10 @@
         <v>0.001</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E74" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F74">
         <v>339.121</v>
@@ -4119,33 +6339,63 @@
         <v>17.388</v>
       </c>
       <c r="I74">
+        <v>0.589</v>
+      </c>
+      <c r="J74">
+        <v>0.412</v>
+      </c>
+      <c r="K74">
         <v>16.577</v>
       </c>
-      <c r="J74">
+      <c r="L74">
         <v>17.775</v>
       </c>
-      <c r="K74">
+      <c r="M74">
+        <v>0.628</v>
+      </c>
+      <c r="N74">
+        <v>0.445</v>
+      </c>
+      <c r="O74">
         <v>17.433</v>
       </c>
-      <c r="L74">
+      <c r="P74">
         <v>25.066</v>
       </c>
-      <c r="M74">
+      <c r="Q74">
+        <v>0.586</v>
+      </c>
+      <c r="R74">
+        <v>-0.064</v>
+      </c>
+      <c r="S74">
         <v>17.312</v>
       </c>
-      <c r="N74">
+      <c r="T74">
         <v>0.6825913858231715</v>
       </c>
-      <c r="O74">
+      <c r="U74">
         <v>20.07633333333333</v>
       </c>
-      <c r="P74">
+      <c r="V74">
         <v>4.325508332362028</v>
       </c>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="W74">
+        <v>0.601</v>
+      </c>
+      <c r="X74">
+        <v>0.02343074902771998</v>
+      </c>
+      <c r="Y74">
+        <v>0.2643333333333333</v>
+      </c>
+      <c r="Z74">
+        <v>0.2848233370588396</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -4154,10 +6404,10 @@
         <v>0.001</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E75" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F75">
         <v>325.617</v>
@@ -4169,33 +6419,63 @@
         <v>18.006</v>
       </c>
       <c r="I75">
+        <v>0.601</v>
+      </c>
+      <c r="J75">
+        <v>0.377</v>
+      </c>
+      <c r="K75">
         <v>16.582</v>
       </c>
-      <c r="J75">
+      <c r="L75">
         <v>17.501</v>
       </c>
-      <c r="K75">
+      <c r="M75">
+        <v>0.626</v>
+      </c>
+      <c r="N75">
+        <v>0.472</v>
+      </c>
+      <c r="O75">
         <v>16.806</v>
       </c>
-      <c r="L75">
+      <c r="P75">
         <v>24.759</v>
       </c>
-      <c r="M75">
+      <c r="Q75">
+        <v>0.616</v>
+      </c>
+      <c r="R75">
+        <v>-0.038</v>
+      </c>
+      <c r="S75">
         <v>17.01066666666667</v>
       </c>
-      <c r="N75">
+      <c r="T75">
         <v>0.5598011551732739</v>
       </c>
-      <c r="O75">
+      <c r="U75">
         <v>20.08866666666667</v>
       </c>
-      <c r="P75">
+      <c r="V75">
         <v>4.052501244087821</v>
       </c>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="W75">
+        <v>0.6143333333333333</v>
+      </c>
+      <c r="X75">
+        <v>0.01258305739211793</v>
+      </c>
+      <c r="Y75">
+        <v>0.2703333333333333</v>
+      </c>
+      <c r="Z75">
+        <v>0.2712163957679058</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -4204,10 +6484,10 @@
         <v>0.001</v>
       </c>
       <c r="D76" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E76" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F76">
         <v>212.927</v>
@@ -4219,33 +6499,63 @@
         <v>17.924</v>
       </c>
       <c r="I76">
+        <v>0.753</v>
+      </c>
+      <c r="J76">
+        <v>0.404</v>
+      </c>
+      <c r="K76">
         <v>13.609</v>
       </c>
-      <c r="J76">
+      <c r="L76">
         <v>19.452</v>
       </c>
-      <c r="K76">
+      <c r="M76">
+        <v>0.747</v>
+      </c>
+      <c r="N76">
+        <v>0.34</v>
+      </c>
+      <c r="O76">
         <v>12.993</v>
       </c>
-      <c r="L76">
+      <c r="P76">
         <v>23.031</v>
       </c>
-      <c r="M76">
+      <c r="Q76">
+        <v>0.766</v>
+      </c>
+      <c r="R76">
+        <v>0.12</v>
+      </c>
+      <c r="S76">
         <v>13.452</v>
       </c>
-      <c r="N76">
+      <c r="T76">
         <v>0.4040631138819772</v>
       </c>
-      <c r="O76">
+      <c r="U76">
         <v>20.13566666666667</v>
       </c>
-      <c r="P76">
+      <c r="V76">
         <v>2.621242517077222</v>
       </c>
-    </row>
-    <row r="77" spans="1:16">
+      <c r="W76">
+        <v>0.7553333333333333</v>
+      </c>
+      <c r="X76">
+        <v>0.009712534856222319</v>
+      </c>
+      <c r="Y76">
+        <v>0.288</v>
+      </c>
+      <c r="Z76">
+        <v>0.1489697955962886</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -4254,10 +6564,10 @@
         <v>0.001</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E77" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F77">
         <v>212.015</v>
@@ -4269,33 +6579,63 @@
         <v>17.375</v>
       </c>
       <c r="I77">
+        <v>0.754</v>
+      </c>
+      <c r="J77">
+        <v>0.43</v>
+      </c>
+      <c r="K77">
         <v>12.517</v>
       </c>
-      <c r="J77">
+      <c r="L77">
         <v>16.819</v>
       </c>
-      <c r="K77">
+      <c r="M77">
+        <v>0.784</v>
+      </c>
+      <c r="N77">
+        <v>0.521</v>
+      </c>
+      <c r="O77">
         <v>13.491</v>
       </c>
-      <c r="L77">
+      <c r="P77">
         <v>26.591</v>
       </c>
-      <c r="M77">
+      <c r="Q77">
+        <v>0.752</v>
+      </c>
+      <c r="R77">
+        <v>-0.18</v>
+      </c>
+      <c r="S77">
         <v>13.26066666666667</v>
       </c>
-      <c r="N77">
+      <c r="T77">
         <v>0.6593954301732255</v>
       </c>
-      <c r="O77">
+      <c r="U77">
         <v>20.26166666666667</v>
       </c>
-      <c r="P77">
+      <c r="V77">
         <v>5.488408633960607</v>
       </c>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="W77">
+        <v>0.7633333333333333</v>
+      </c>
+      <c r="X77">
+        <v>0.01792577287966502</v>
+      </c>
+      <c r="Y77">
+        <v>0.2570000000000001</v>
+      </c>
+      <c r="Z77">
+        <v>0.3811784359063351</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -4304,10 +6644,10 @@
         <v>0.001</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E78" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F78">
         <v>353.223</v>
@@ -4319,33 +6659,63 @@
         <v>18.191</v>
       </c>
       <c r="I78">
+        <v>0.573</v>
+      </c>
+      <c r="J78">
+        <v>0.374</v>
+      </c>
+      <c r="K78">
         <v>18.057</v>
       </c>
-      <c r="J78">
+      <c r="L78">
         <v>19.241</v>
       </c>
-      <c r="K78">
+      <c r="M78">
+        <v>0.556</v>
+      </c>
+      <c r="N78">
+        <v>0.332</v>
+      </c>
+      <c r="O78">
         <v>18.272</v>
       </c>
-      <c r="L78">
+      <c r="P78">
         <v>23.688</v>
       </c>
-      <c r="M78">
+      <c r="Q78">
+        <v>0.545</v>
+      </c>
+      <c r="R78">
+        <v>0.052</v>
+      </c>
+      <c r="S78">
         <v>18.211</v>
       </c>
-      <c r="N78">
+      <c r="T78">
         <v>0.1343242345967398</v>
       </c>
-      <c r="O78">
+      <c r="U78">
         <v>20.37333333333333</v>
       </c>
-      <c r="P78">
+      <c r="V78">
         <v>2.91819915929899</v>
       </c>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="W78">
+        <v>0.5579999999999999</v>
+      </c>
+      <c r="X78">
+        <v>0.01410673597966584</v>
+      </c>
+      <c r="Y78">
+        <v>0.2526666666666667</v>
+      </c>
+      <c r="Z78">
+        <v>0.1750466604461031</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -4354,10 +6724,10 @@
         <v>0.001</v>
       </c>
       <c r="D79" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E79" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F79">
         <v>318.175</v>
@@ -4369,33 +6739,63 @@
         <v>17.298</v>
       </c>
       <c r="I79">
+        <v>0.624</v>
+      </c>
+      <c r="J79">
+        <v>0.416</v>
+      </c>
+      <c r="K79">
         <v>17.213</v>
       </c>
-      <c r="J79">
+      <c r="L79">
         <v>17.712</v>
       </c>
-      <c r="K79">
+      <c r="M79">
+        <v>0.597</v>
+      </c>
+      <c r="N79">
+        <v>0.437</v>
+      </c>
+      <c r="O79">
         <v>16.575</v>
       </c>
-      <c r="L79">
+      <c r="P79">
         <v>26.451</v>
       </c>
-      <c r="M79">
+      <c r="Q79">
+        <v>0.627</v>
+      </c>
+      <c r="R79">
+        <v>-0.154</v>
+      </c>
+      <c r="S79">
         <v>16.97533333333334</v>
       </c>
-      <c r="N79">
+      <c r="T79">
         <v>0.3487209964044811</v>
       </c>
-      <c r="O79">
+      <c r="U79">
         <v>20.487</v>
       </c>
-      <c r="P79">
+      <c r="V79">
         <v>5.169121879004209</v>
       </c>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="W79">
+        <v>0.616</v>
+      </c>
+      <c r="X79">
+        <v>0.01652271164185832</v>
+      </c>
+      <c r="Y79">
+        <v>0.233</v>
+      </c>
+      <c r="Z79">
+        <v>0.335316268618151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B80">
         <v>4</v>
@@ -4404,10 +6804,10 @@
         <v>0.0001</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E80" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F80">
         <v>352.875</v>
@@ -4419,33 +6819,63 @@
         <v>18.76</v>
       </c>
       <c r="I80">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="J80">
+        <v>0.327</v>
+      </c>
+      <c r="K80">
         <v>17.47</v>
       </c>
-      <c r="J80">
+      <c r="L80">
         <v>19.092</v>
       </c>
-      <c r="K80">
+      <c r="M80">
+        <v>0.581</v>
+      </c>
+      <c r="N80">
+        <v>0.352</v>
+      </c>
+      <c r="O80">
         <v>18.117</v>
       </c>
-      <c r="L80">
+      <c r="P80">
         <v>23.658</v>
       </c>
-      <c r="M80">
+      <c r="Q80">
+        <v>0.552</v>
+      </c>
+      <c r="R80">
+        <v>0.054</v>
+      </c>
+      <c r="S80">
         <v>18.04233333333333</v>
       </c>
-      <c r="N80">
+      <c r="T80">
         <v>0.5388936196814114</v>
       </c>
-      <c r="O80">
+      <c r="U80">
         <v>20.50333333333333</v>
       </c>
-      <c r="P80">
+      <c r="V80">
         <v>2.737059979856732</v>
       </c>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="W80">
+        <v>0.5640000000000001</v>
+      </c>
+      <c r="X80">
+        <v>0.01513274595042151</v>
+      </c>
+      <c r="Y80">
+        <v>0.2443333333333334</v>
+      </c>
+      <c r="Z80">
+        <v>0.1653067855029954</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B81">
         <v>5</v>
@@ -4454,10 +6884,10 @@
         <v>0.0001</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E81" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F81">
         <v>299.845</v>
@@ -4469,33 +6899,63 @@
         <v>17.548</v>
       </c>
       <c r="I81">
+        <v>0.637</v>
+      </c>
+      <c r="J81">
+        <v>0.428</v>
+      </c>
+      <c r="K81">
         <v>16.129</v>
       </c>
-      <c r="J81">
+      <c r="L81">
         <v>20.26</v>
       </c>
-      <c r="K81">
+      <c r="M81">
+        <v>0.645</v>
+      </c>
+      <c r="N81">
+        <v>0.272</v>
+      </c>
+      <c r="O81">
         <v>16.425</v>
       </c>
-      <c r="L81">
+      <c r="P81">
         <v>24.04</v>
       </c>
-      <c r="M81">
+      <c r="Q81">
+        <v>0.63</v>
+      </c>
+      <c r="R81">
+        <v>0.025</v>
+      </c>
+      <c r="S81">
         <v>16.47033333333333</v>
       </c>
-      <c r="N81">
+      <c r="T81">
         <v>0.3661110942505466</v>
       </c>
-      <c r="O81">
+      <c r="U81">
         <v>20.616</v>
       </c>
-      <c r="P81">
+      <c r="V81">
         <v>3.26060853216083</v>
       </c>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="W81">
+        <v>0.6373333333333333</v>
+      </c>
+      <c r="X81">
+        <v>0.007505553499465142</v>
+      </c>
+      <c r="Y81">
+        <v>0.2416666666666667</v>
+      </c>
+      <c r="Z81">
+        <v>0.2032051508533515</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -4504,10 +6964,10 @@
         <v>0.0001</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E82" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F82">
         <v>303.137</v>
@@ -4519,33 +6979,63 @@
         <v>17.618</v>
       </c>
       <c r="I82">
+        <v>0.624</v>
+      </c>
+      <c r="J82">
+        <v>0.417</v>
+      </c>
+      <c r="K82">
         <v>16.553</v>
       </c>
-      <c r="J82">
+      <c r="L82">
         <v>20.184</v>
       </c>
-      <c r="K82">
+      <c r="M82">
+        <v>0.627</v>
+      </c>
+      <c r="N82">
+        <v>0.271</v>
+      </c>
+      <c r="O82">
         <v>16.268</v>
       </c>
-      <c r="L82">
+      <c r="P82">
         <v>24.373</v>
       </c>
-      <c r="M82">
+      <c r="Q82">
+        <v>0.639</v>
+      </c>
+      <c r="R82">
+        <v>0.006</v>
+      </c>
+      <c r="S82">
         <v>16.62033333333333</v>
       </c>
-      <c r="N82">
+      <c r="T82">
         <v>0.3903797296650182</v>
       </c>
-      <c r="O82">
+      <c r="U82">
         <v>20.725</v>
       </c>
-      <c r="P82">
+      <c r="V82">
         <v>3.409841198648408</v>
       </c>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="W82">
+        <v>0.63</v>
+      </c>
+      <c r="X82">
+        <v>0.007937253933193779</v>
+      </c>
+      <c r="Y82">
+        <v>0.2313333333333333</v>
+      </c>
+      <c r="Z82">
+        <v>0.2083514658775727</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B83">
         <v>4</v>
@@ -4554,10 +7044,10 @@
         <v>0.01</v>
       </c>
       <c r="D83" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E83" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F83">
         <v>351.122</v>
@@ -4569,33 +7059,63 @@
         <v>17.963</v>
       </c>
       <c r="I83">
+        <v>0.583</v>
+      </c>
+      <c r="J83">
+        <v>0.373</v>
+      </c>
+      <c r="K83">
         <v>15.579</v>
       </c>
-      <c r="J83">
+      <c r="L83">
         <v>17.435</v>
       </c>
-      <c r="K83">
+      <c r="M83">
+        <v>0.668</v>
+      </c>
+      <c r="N83">
+        <v>0.475</v>
+      </c>
+      <c r="O83">
         <v>18.513</v>
       </c>
-      <c r="L83">
+      <c r="P83">
         <v>26.841</v>
       </c>
-      <c r="M83">
+      <c r="Q83">
+        <v>0.535</v>
+      </c>
+      <c r="R83">
+        <v>-0.208</v>
+      </c>
+      <c r="S83">
         <v>17.36</v>
       </c>
-      <c r="N83">
+      <c r="T83">
         <v>1.5645692697992</v>
       </c>
-      <c r="O83">
+      <c r="U83">
         <v>20.74633333333333</v>
       </c>
-      <c r="P83">
+      <c r="V83">
         <v>5.284734367338944</v>
       </c>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="W83">
+        <v>0.5953333333333334</v>
+      </c>
+      <c r="X83">
+        <v>0.06735230755759847</v>
+      </c>
+      <c r="Y83">
+        <v>0.2133333333333333</v>
+      </c>
+      <c r="Z83">
+        <v>0.3684322642404345</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -4604,10 +7124,10 @@
         <v>0.001</v>
       </c>
       <c r="D84" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E84" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F84">
         <v>361.218</v>
@@ -4619,33 +7139,63 @@
         <v>18.682</v>
       </c>
       <c r="I84">
+        <v>0.569</v>
+      </c>
+      <c r="J84">
+        <v>0.324</v>
+      </c>
+      <c r="K84">
         <v>18.106</v>
       </c>
-      <c r="J84">
+      <c r="L84">
         <v>19.6</v>
       </c>
-      <c r="K84">
+      <c r="M84">
+        <v>0.556</v>
+      </c>
+      <c r="N84">
+        <v>0.307</v>
+      </c>
+      <c r="O84">
         <v>18.073</v>
       </c>
-      <c r="L84">
+      <c r="P84">
         <v>24.252</v>
       </c>
-      <c r="M84">
+      <c r="Q84">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="R84">
+        <v>0.002</v>
+      </c>
+      <c r="S84">
         <v>18.145</v>
       </c>
-      <c r="N84">
+      <c r="T84">
         <v>0.0975346092420528</v>
       </c>
-      <c r="O84">
+      <c r="U84">
         <v>20.84466666666667</v>
       </c>
-      <c r="P84">
+      <c r="V84">
         <v>2.986322375989125</v>
       </c>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="W84">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="X84">
+        <v>0.006999999999999943</v>
+      </c>
+      <c r="Y84">
+        <v>0.211</v>
+      </c>
+      <c r="Z84">
+        <v>0.181198785867897</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
       <c r="A85" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -4654,10 +7204,10 @@
         <v>0.0001</v>
       </c>
       <c r="D85" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E85" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F85">
         <v>327.618</v>
@@ -4669,33 +7219,63 @@
         <v>19.115</v>
       </c>
       <c r="I85">
+        <v>0.602</v>
+      </c>
+      <c r="J85">
+        <v>0.319</v>
+      </c>
+      <c r="K85">
         <v>16.763</v>
       </c>
-      <c r="J85">
+      <c r="L85">
         <v>18.645</v>
       </c>
-      <c r="K85">
+      <c r="M85">
+        <v>0.615</v>
+      </c>
+      <c r="N85">
+        <v>0.389</v>
+      </c>
+      <c r="O85">
         <v>17.15</v>
       </c>
-      <c r="L85">
+      <c r="P85">
         <v>24.882</v>
       </c>
-      <c r="M85">
+      <c r="Q85">
+        <v>0.602</v>
+      </c>
+      <c r="R85">
+        <v>-0.049</v>
+      </c>
+      <c r="S85">
         <v>17.19066666666667</v>
       </c>
-      <c r="N85">
+      <c r="T85">
         <v>0.4493821684639169</v>
       </c>
-      <c r="O85">
+      <c r="U85">
         <v>20.88066666666667</v>
       </c>
-      <c r="P85">
+      <c r="V85">
         <v>3.473215561023149</v>
       </c>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="W85">
+        <v>0.6063333333333333</v>
+      </c>
+      <c r="X85">
+        <v>0.007505553499465141</v>
+      </c>
+      <c r="Y85">
+        <v>0.2196666666666666</v>
+      </c>
+      <c r="Z85">
+        <v>0.2352898921189207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -4704,10 +7284,10 @@
         <v>0.01</v>
       </c>
       <c r="D86" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E86" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F86">
         <v>266.389</v>
@@ -4719,33 +7299,63 @@
         <v>16.855</v>
       </c>
       <c r="I86">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="J86">
+        <v>0.473</v>
+      </c>
+      <c r="K86">
         <v>15.775</v>
       </c>
-      <c r="J86">
+      <c r="L86">
         <v>18.608</v>
       </c>
-      <c r="K86">
+      <c r="M86">
+        <v>0.661</v>
+      </c>
+      <c r="N86">
+        <v>0.38</v>
+      </c>
+      <c r="O86">
         <v>19.972</v>
       </c>
-      <c r="L86">
+      <c r="P86">
         <v>27.3</v>
       </c>
-      <c r="M86">
+      <c r="Q86">
+        <v>0.457</v>
+      </c>
+      <c r="R86">
+        <v>-0.258</v>
+      </c>
+      <c r="S86">
         <v>17.09633333333333</v>
       </c>
-      <c r="N86">
+      <c r="T86">
         <v>2.493123810269626</v>
       </c>
-      <c r="O86">
+      <c r="U86">
         <v>20.921</v>
       </c>
-      <c r="P86">
+      <c r="V86">
         <v>5.593476825731917</v>
       </c>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="W86">
+        <v>0.6036666666666667</v>
+      </c>
+      <c r="X86">
+        <v>0.1280208316381882</v>
+      </c>
+      <c r="Y86">
+        <v>0.1983333333333333</v>
+      </c>
+      <c r="Z86">
+        <v>0.3979225217719315</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -4754,10 +7364,10 @@
         <v>0.01</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E87" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F87">
         <v>328.651</v>
@@ -4769,33 +7379,63 @@
         <v>17.531</v>
       </c>
       <c r="I87">
+        <v>0.604</v>
+      </c>
+      <c r="J87">
+        <v>0.388</v>
+      </c>
+      <c r="K87">
         <v>16.606</v>
       </c>
-      <c r="J87">
+      <c r="L87">
         <v>17.303</v>
       </c>
-      <c r="K87">
+      <c r="M87">
+        <v>0.626</v>
+      </c>
+      <c r="N87">
+        <v>0.475</v>
+      </c>
+      <c r="O87">
         <v>17.211</v>
       </c>
-      <c r="L87">
+      <c r="P87">
         <v>27.96</v>
       </c>
-      <c r="M87">
+      <c r="Q87">
+        <v>0.593</v>
+      </c>
+      <c r="R87">
+        <v>-0.324</v>
+      </c>
+      <c r="S87">
         <v>17.11566666666667</v>
       </c>
-      <c r="N87">
+      <c r="T87">
         <v>0.4693190101981091</v>
       </c>
-      <c r="O87">
+      <c r="U87">
         <v>20.93133333333333</v>
       </c>
-      <c r="P87">
+      <c r="V87">
         <v>6.088071314737808</v>
       </c>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="W87">
+        <v>0.6076666666666667</v>
+      </c>
+      <c r="X87">
+        <v>0.01680277754817143</v>
+      </c>
+      <c r="Y87">
+        <v>0.1796666666666666</v>
+      </c>
+      <c r="Z87">
+        <v>0.4383518373787583</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4804,10 +7444,10 @@
         <v>0.0001</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E88" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F88">
         <v>307.384</v>
@@ -4819,33 +7459,63 @@
         <v>18.218</v>
       </c>
       <c r="I88">
+        <v>0.617</v>
+      </c>
+      <c r="J88">
+        <v>0.378</v>
+      </c>
+      <c r="K88">
         <v>16.138</v>
       </c>
-      <c r="J88">
+      <c r="L88">
         <v>19.286</v>
       </c>
-      <c r="K88">
+      <c r="M88">
+        <v>0.647</v>
+      </c>
+      <c r="N88">
+        <v>0.333</v>
+      </c>
+      <c r="O88">
         <v>17.329</v>
       </c>
-      <c r="L88">
+      <c r="P88">
         <v>25.672</v>
       </c>
-      <c r="M88">
+      <c r="Q88">
+        <v>0.59</v>
+      </c>
+      <c r="R88">
+        <v>-0.107</v>
+      </c>
+      <c r="S88">
         <v>16.91133333333334</v>
       </c>
-      <c r="N88">
+      <c r="T88">
         <v>0.6704433856287435</v>
       </c>
-      <c r="O88">
+      <c r="U88">
         <v>21.05866666666667</v>
       </c>
-      <c r="P88">
+      <c r="V88">
         <v>4.030792643306442</v>
       </c>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="W88">
+        <v>0.618</v>
+      </c>
+      <c r="X88">
+        <v>0.02851315485876653</v>
+      </c>
+      <c r="Y88">
+        <v>0.2013333333333334</v>
+      </c>
+      <c r="Z88">
+        <v>0.2679707695502129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4854,10 +7524,10 @@
         <v>0.01</v>
       </c>
       <c r="D89" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E89" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F89">
         <v>325.854</v>
@@ -4869,33 +7539,63 @@
         <v>17.654</v>
       </c>
       <c r="I89">
+        <v>0.598</v>
+      </c>
+      <c r="J89">
+        <v>0.409</v>
+      </c>
+      <c r="K89">
         <v>18.611</v>
       </c>
-      <c r="J89">
+      <c r="L89">
         <v>21.456</v>
       </c>
-      <c r="K89">
+      <c r="M89">
+        <v>0.528</v>
+      </c>
+      <c r="N89">
+        <v>0.211</v>
+      </c>
+      <c r="O89">
         <v>17.807</v>
       </c>
-      <c r="L89">
+      <c r="P89">
         <v>24.361</v>
       </c>
-      <c r="M89">
+      <c r="Q89">
+        <v>0.569</v>
+      </c>
+      <c r="R89">
+        <v>-0.008</v>
+      </c>
+      <c r="S89">
         <v>18.005</v>
       </c>
-      <c r="N89">
+      <c r="T89">
         <v>0.5352121074863685</v>
       </c>
-      <c r="O89">
+      <c r="U89">
         <v>21.157</v>
       </c>
-      <c r="P89">
+      <c r="V89">
         <v>3.363482272883269</v>
       </c>
-    </row>
-    <row r="90" spans="1:16">
+      <c r="W89">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="X89">
+        <v>0.03517101079013792</v>
+      </c>
+      <c r="Y89">
+        <v>0.204</v>
+      </c>
+      <c r="Z89">
+        <v>0.2085881108788322</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -4904,10 +7604,10 @@
         <v>0.001</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E90" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F90">
         <v>374.255</v>
@@ -4919,33 +7619,63 @@
         <v>18.627</v>
       </c>
       <c r="I90">
+        <v>0.536</v>
+      </c>
+      <c r="J90">
+        <v>0.333</v>
+      </c>
+      <c r="K90">
         <v>18.163</v>
       </c>
-      <c r="J90">
+      <c r="L90">
         <v>19.192</v>
       </c>
-      <c r="K90">
+      <c r="M90">
+        <v>0.551</v>
+      </c>
+      <c r="N90">
+        <v>0.341</v>
+      </c>
+      <c r="O90">
         <v>19.549</v>
       </c>
-      <c r="L90">
+      <c r="P90">
         <v>25.676</v>
       </c>
-      <c r="M90">
+      <c r="Q90">
+        <v>0.479</v>
+      </c>
+      <c r="R90">
+        <v>-0.096</v>
+      </c>
+      <c r="S90">
         <v>18.90866666666667</v>
       </c>
-      <c r="N90">
+      <c r="T90">
         <v>0.6989780635565989</v>
       </c>
-      <c r="O90">
+      <c r="U90">
         <v>21.165</v>
       </c>
-      <c r="P90">
+      <c r="V90">
         <v>3.916841457092691</v>
       </c>
-    </row>
-    <row r="91" spans="1:16">
+      <c r="W90">
+        <v>0.5220000000000001</v>
+      </c>
+      <c r="X90">
+        <v>0.03798683982644519</v>
+      </c>
+      <c r="Y90">
+        <v>0.1926666666666667</v>
+      </c>
+      <c r="Z90">
+        <v>0.2500246654498978</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
       <c r="A91" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -4954,10 +7684,10 @@
         <v>0.001</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E91" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F91">
         <v>389.966</v>
@@ -4969,33 +7699,63 @@
         <v>19.889</v>
       </c>
       <c r="I91">
+        <v>0.522</v>
+      </c>
+      <c r="J91">
+        <v>0.227</v>
+      </c>
+      <c r="K91">
         <v>18.121</v>
       </c>
-      <c r="J91">
+      <c r="L91">
         <v>19.44</v>
       </c>
-      <c r="K91">
+      <c r="M91">
+        <v>0.55</v>
+      </c>
+      <c r="N91">
+        <v>0.331</v>
+      </c>
+      <c r="O91">
         <v>17.915</v>
       </c>
-      <c r="L91">
+      <c r="P91">
         <v>25.285</v>
       </c>
-      <c r="M91">
+      <c r="Q91">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="R91">
+        <v>-0.073</v>
+      </c>
+      <c r="S91">
         <v>18.46966666666667</v>
       </c>
-      <c r="N91">
+      <c r="T91">
         <v>0.7890610453781984</v>
       </c>
-      <c r="O91">
+      <c r="U91">
         <v>21.538</v>
       </c>
-      <c r="P91">
+      <c r="V91">
         <v>3.252753756434692</v>
       </c>
-    </row>
-    <row r="92" spans="1:16">
+      <c r="W91">
+        <v>0.545</v>
+      </c>
+      <c r="X91">
+        <v>0.02095232683975693</v>
+      </c>
+      <c r="Y91">
+        <v>0.1616666666666667</v>
+      </c>
+      <c r="Z91">
+        <v>0.2097744820833395</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -5004,10 +7764,10 @@
         <v>0.01</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E92" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F92">
         <v>431.47</v>
@@ -5019,33 +7779,63 @@
         <v>19.164</v>
       </c>
       <c r="I92">
+        <v>0.474</v>
+      </c>
+      <c r="J92">
+        <v>0.299</v>
+      </c>
+      <c r="K92">
         <v>21.978</v>
       </c>
-      <c r="J92">
+      <c r="L92">
         <v>24.231</v>
       </c>
-      <c r="K92">
+      <c r="M92">
+        <v>0.348</v>
+      </c>
+      <c r="N92">
+        <v>0.03</v>
+      </c>
+      <c r="O92">
         <v>18.173</v>
       </c>
-      <c r="L92">
+      <c r="P92">
         <v>24.961</v>
       </c>
-      <c r="M92">
+      <c r="Q92">
+        <v>0.552</v>
+      </c>
+      <c r="R92">
+        <v>-0.028</v>
+      </c>
+      <c r="S92">
         <v>20.08533333333333</v>
       </c>
-      <c r="N92">
+      <c r="T92">
         <v>1.902576235879482</v>
       </c>
-      <c r="O92">
+      <c r="U92">
         <v>22.78533333333333</v>
       </c>
-      <c r="P92">
+      <c r="V92">
         <v>3.157335321649148</v>
       </c>
-    </row>
-    <row r="93" spans="1:16">
+      <c r="W92">
+        <v>0.458</v>
+      </c>
+      <c r="X92">
+        <v>0.1029368738596622</v>
+      </c>
+      <c r="Y92">
+        <v>0.1003333333333333</v>
+      </c>
+      <c r="Z92">
+        <v>0.1744773146667879</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -5054,10 +7844,10 @@
         <v>0.01</v>
       </c>
       <c r="D93" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E93" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F93">
         <v>498.35</v>
@@ -5069,33 +7859,63 @@
         <v>21.342</v>
       </c>
       <c r="I93">
+        <v>0.4</v>
+      </c>
+      <c r="J93">
+        <v>0.125</v>
+      </c>
+      <c r="K93">
         <v>25.52</v>
       </c>
-      <c r="J93">
+      <c r="L93">
         <v>25.282</v>
       </c>
-      <c r="K93">
+      <c r="M93">
+        <v>0.118</v>
+      </c>
+      <c r="N93">
+        <v>-0.041</v>
+      </c>
+      <c r="O93">
         <v>16.116</v>
       </c>
-      <c r="L93">
+      <c r="P93">
         <v>24.157</v>
       </c>
-      <c r="M93">
+      <c r="Q93">
+        <v>0.647</v>
+      </c>
+      <c r="R93">
+        <v>0.032</v>
+      </c>
+      <c r="S93">
         <v>21.12266666666666</v>
       </c>
-      <c r="N93">
+      <c r="T93">
         <v>4.731518713196993</v>
       </c>
-      <c r="O93">
+      <c r="U93">
         <v>23.59366666666666</v>
       </c>
-      <c r="P93">
+      <c r="V93">
         <v>2.029509382420622</v>
       </c>
-    </row>
-    <row r="94" spans="1:16">
+      <c r="W93">
+        <v>0.3883333333333334</v>
+      </c>
+      <c r="X93">
+        <v>0.2646929038212648</v>
+      </c>
+      <c r="Y93">
+        <v>0.03866666666666666</v>
+      </c>
+      <c r="Z93">
+        <v>0.08320056089554526</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26">
       <c r="A94" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -5104,10 +7924,10 @@
         <v>0.01</v>
       </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E94" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F94">
         <v>497.295</v>
@@ -5119,33 +7939,63 @@
         <v>19.753</v>
       </c>
       <c r="I94">
+        <v>0.416</v>
+      </c>
+      <c r="J94">
+        <v>0.236</v>
+      </c>
+      <c r="K94">
         <v>18.067</v>
       </c>
-      <c r="J94">
+      <c r="L94">
         <v>18.337</v>
       </c>
-      <c r="K94">
+      <c r="M94">
+        <v>0.55</v>
+      </c>
+      <c r="N94">
+        <v>0.419</v>
+      </c>
+      <c r="O94">
         <v>40.438</v>
       </c>
-      <c r="L94">
+      <c r="P94">
         <v>41.516</v>
       </c>
-      <c r="M94">
+      <c r="Q94">
+        <v>-1.202</v>
+      </c>
+      <c r="R94">
+        <v>-1.842</v>
+      </c>
+      <c r="S94">
         <v>26.62566666666667</v>
       </c>
-      <c r="N94">
+      <c r="T94">
         <v>12.07543665187033</v>
       </c>
-      <c r="O94">
+      <c r="U94">
         <v>26.53533333333333</v>
       </c>
-      <c r="P94">
+      <c r="V94">
         <v>12.99294209689758</v>
       </c>
-    </row>
-    <row r="95" spans="1:16">
+      <c r="W94">
+        <v>-0.07866666666666666</v>
+      </c>
+      <c r="X94">
+        <v>0.975139648118839</v>
+      </c>
+      <c r="Y94">
+        <v>-0.3956666666666667</v>
+      </c>
+      <c r="Z94">
+        <v>1.255899013986926</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26">
       <c r="A95" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -5154,10 +8004,10 @@
         <v>0.01</v>
       </c>
       <c r="D95" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E95" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F95">
         <v>140602947.629</v>
@@ -5169,33 +8019,63 @@
         <v>37.904</v>
       </c>
       <c r="I95">
+        <v>-1.212</v>
+      </c>
+      <c r="J95">
+        <v>-1.658</v>
+      </c>
+      <c r="K95">
         <v>24.781</v>
       </c>
-      <c r="J95">
+      <c r="L95">
         <v>24.58</v>
       </c>
-      <c r="K95">
+      <c r="M95">
+        <v>0.174</v>
+      </c>
+      <c r="N95">
+        <v>-0.004</v>
+      </c>
+      <c r="O95">
         <v>37.805</v>
       </c>
-      <c r="L95">
+      <c r="P95">
         <v>39.999</v>
       </c>
-      <c r="M95">
+      <c r="Q95">
+        <v>-0.926</v>
+      </c>
+      <c r="R95">
+        <v>-1.671</v>
+      </c>
+      <c r="S95">
         <v>34.80099999999999</v>
       </c>
-      <c r="N95">
+      <c r="T95">
         <v>8.906421054497704</v>
       </c>
-      <c r="O95">
+      <c r="U95">
         <v>34.161</v>
       </c>
-      <c r="P95">
+      <c r="V95">
         <v>8.363248591307091</v>
       </c>
-    </row>
-    <row r="96" spans="1:16">
+      <c r="W95">
+        <v>-0.6546666666666666</v>
+      </c>
+      <c r="X95">
+        <v>0.7317549680961062</v>
+      </c>
+      <c r="Y95">
+        <v>-1.111</v>
+      </c>
+      <c r="Z95">
+        <v>0.9587121570106432</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -5204,10 +8084,10 @@
         <v>0.01</v>
       </c>
       <c r="D96" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E96" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F96">
         <v>800.335</v>
@@ -5219,33 +8099,63 @@
         <v>23.921</v>
       </c>
       <c r="I96">
+        <v>0.06</v>
+      </c>
+      <c r="J96">
+        <v>-0.093</v>
+      </c>
+      <c r="K96">
         <v>64.107</v>
       </c>
-      <c r="J96">
+      <c r="L96">
         <v>53.435</v>
       </c>
-      <c r="K96">
+      <c r="M96">
+        <v>-4.895</v>
+      </c>
+      <c r="N96">
+        <v>-4.203</v>
+      </c>
+      <c r="O96">
         <v>18.137</v>
       </c>
-      <c r="L96">
+      <c r="P96">
         <v>27.775</v>
       </c>
-      <c r="M96">
+      <c r="Q96">
+        <v>0.554</v>
+      </c>
+      <c r="R96">
+        <v>-0.281</v>
+      </c>
+      <c r="S96">
         <v>36.52266666666667</v>
       </c>
-      <c r="N96">
+      <c r="T96">
         <v>24.3263607293268</v>
       </c>
-      <c r="O96">
+      <c r="U96">
         <v>35.04366666666667</v>
       </c>
-      <c r="P96">
+      <c r="V96">
         <v>16.04350913401845</v>
       </c>
-    </row>
-    <row r="97" spans="1:16">
+      <c r="W96">
+        <v>-1.427</v>
+      </c>
+      <c r="X96">
+        <v>3.013515720881509</v>
+      </c>
+      <c r="Y96">
+        <v>-1.525666666666667</v>
+      </c>
+      <c r="Z96">
+        <v>2.320543327182954</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
       <c r="A97" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B97">
         <v>4</v>
@@ -5254,10 +8164,10 @@
         <v>0.01</v>
       </c>
       <c r="D97" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E97" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F97">
         <v>1602.577</v>
@@ -5269,28 +8179,58 @@
         <v>33.093</v>
       </c>
       <c r="I97">
+        <v>-1.001</v>
+      </c>
+      <c r="J97">
+        <v>-1.187</v>
+      </c>
+      <c r="K97">
         <v>19.385</v>
       </c>
-      <c r="J97">
+      <c r="L97">
         <v>20.519</v>
       </c>
-      <c r="K97">
+      <c r="M97">
+        <v>0.485</v>
+      </c>
+      <c r="N97">
+        <v>0.3</v>
+      </c>
+      <c r="O97">
         <v>35713.916</v>
       </c>
-      <c r="L97">
+      <c r="P97">
         <v>24783.435</v>
       </c>
-      <c r="M97">
+      <c r="Q97">
+        <v>-1810058.374</v>
+      </c>
+      <c r="R97">
+        <v>-1169563.586</v>
+      </c>
+      <c r="S97">
         <v>11924.268</v>
       </c>
-      <c r="N97">
+      <c r="T97">
         <v>20602.44197070845</v>
       </c>
-      <c r="O97">
+      <c r="U97">
         <v>8279.015666666668</v>
       </c>
-      <c r="P97">
+      <c r="V97">
         <v>14293.24780007152</v>
+      </c>
+      <c r="W97">
+        <v>-603352.9633333334</v>
+      </c>
+      <c r="X97">
+        <v>1045037.540521731</v>
+      </c>
+      <c r="Y97">
+        <v>-389854.8243333334</v>
+      </c>
+      <c r="Z97">
+        <v>675247.5951570489</v>
       </c>
     </row>
   </sheetData>
